--- a/target/classes/companies/consumer_defense/BritishAmericanTabacco/BTI_BritishAmericanTabacco.xlsx
+++ b/target/classes/companies/consumer_defense/BritishAmericanTabacco/BTI_BritishAmericanTabacco.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E323FB-CB0B-40B8-9533-5D3BD6C7ECDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DEEC4D-EF3A-437F-98C4-604DD4A11E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valuation Metrics" sheetId="5" r:id="rId1"/>
@@ -19856,8 +19856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U142" sqref="U142"/>
+    <sheetView showGridLines="0" topLeftCell="B62" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T129" sqref="T129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -19875,7 +19875,7 @@
   <dimension ref="B2:P27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20114,8 +20114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:L74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A35" zoomScale="82" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20158,7 +20158,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="65">
-        <v>2.9999999329447746E-2</v>
+        <v>4.999999888241291E-3</v>
       </c>
     </row>
     <row r="7" spans="2:12">
@@ -20166,7 +20166,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="13">
-        <f>AVERAGE(C28:L28)</f>
+        <f>AVERAGEIF(C28:L28, "&lt;0.5")</f>
         <v>0.26439686745224578</v>
       </c>
     </row>
@@ -20175,8 +20175,8 @@
         <v>112</v>
       </c>
       <c r="C8" s="13">
-        <f>AVERAGEIF(C29:L29,"&lt;1.2")</f>
-        <v>0.78819980355144326</v>
+        <f>AVERAGEIF(C29:L29,"&lt;1.5")</f>
+        <v>1.0795623403263233</v>
       </c>
     </row>
     <row r="9" spans="2:12">
@@ -20640,7 +20640,10 @@
         <f t="shared" si="3"/>
         <v>0.31509733029344994</v>
       </c>
-      <c r="G28" s="24"/>
+      <c r="G28" s="24">
+        <f t="shared" si="3"/>
+        <v>1.8496451790527448</v>
+      </c>
       <c r="H28" s="24">
         <f t="shared" si="3"/>
         <v>0.24628453083811624</v>
@@ -20765,31 +20768,31 @@
       </c>
       <c r="F36" s="21">
         <f t="shared" ref="F36:L36" si="5">E36*(F37+1)</f>
-        <v>40016.020855335606</v>
+        <v>39044.758234292887</v>
       </c>
       <c r="G36" s="21">
         <f t="shared" si="5"/>
-        <v>41216.501454162841</v>
+        <v>39239.982021100725</v>
       </c>
       <c r="H36" s="21">
         <f t="shared" si="5"/>
-        <v>42452.996470149905</v>
+        <v>39436.18192682074</v>
       </c>
       <c r="I36" s="21">
         <f t="shared" si="5"/>
-        <v>43726.586335787448</v>
+        <v>39633.362832047416</v>
       </c>
       <c r="J36" s="21">
         <f t="shared" si="5"/>
-        <v>45038.383896540108</v>
+        <v>39831.529641778216</v>
       </c>
       <c r="K36" s="21">
         <f t="shared" si="5"/>
-        <v>46389.535383235721</v>
+        <v>40030.687285535518</v>
       </c>
       <c r="L36" s="21">
         <f t="shared" si="5"/>
-        <v>47781.221413626183</v>
+        <v>40230.840717489351</v>
       </c>
     </row>
     <row r="37" spans="2:12">
@@ -20807,31 +20810,31 @@
       </c>
       <c r="F37" s="27">
         <f>C6</f>
-        <v>2.9999999329447746E-2</v>
+        <v>4.999999888241291E-3</v>
       </c>
       <c r="G37" s="27">
         <f>C6</f>
-        <v>2.9999999329447746E-2</v>
+        <v>4.999999888241291E-3</v>
       </c>
       <c r="H37" s="27">
         <f>C6</f>
-        <v>2.9999999329447746E-2</v>
+        <v>4.999999888241291E-3</v>
       </c>
       <c r="I37" s="27">
         <f>C6</f>
-        <v>2.9999999329447746E-2</v>
+        <v>4.999999888241291E-3</v>
       </c>
       <c r="J37" s="27">
         <f>C6</f>
-        <v>2.9999999329447746E-2</v>
+        <v>4.999999888241291E-3</v>
       </c>
       <c r="K37" s="27">
         <f>C6</f>
-        <v>2.9999999329447746E-2</v>
+        <v>4.999999888241291E-3</v>
       </c>
       <c r="L37" s="27">
         <f>C6</f>
-        <v>2.9999999329447746E-2</v>
+        <v>4.999999888241291E-3</v>
       </c>
     </row>
     <row r="38" spans="2:12">
@@ -20853,86 +20856,86 @@
       </c>
       <c r="C39" s="21">
         <f>C36*C7</f>
-        <v>9568.6400273790096</v>
+        <v>9568.640027379015</v>
       </c>
       <c r="D39" s="21">
         <f>D36*C7</f>
-        <v>9902.5855495628493</v>
+        <v>9902.5855495628621</v>
       </c>
       <c r="E39" s="21">
         <f>E36*C7</f>
-        <v>10271.952008681894</v>
+        <v>10271.952008681912</v>
       </c>
       <c r="F39" s="21">
         <f>F36*C7</f>
-        <v>10580.110562054471</v>
+        <v>10323.31176757733</v>
       </c>
       <c r="G39" s="21">
         <f>G36*C7</f>
-        <v>10897.513871821588</v>
+        <v>10374.928325261479</v>
       </c>
       <c r="H39" s="21">
         <f>H36*C7</f>
-        <v>11224.439280668883</v>
+        <v>10426.802965728271</v>
       </c>
       <c r="I39" s="21">
         <f>I36*C7</f>
-        <v>11561.172451562375</v>
+        <v>10478.93697939161</v>
       </c>
       <c r="J39" s="21">
         <f>J36*C7</f>
-        <v>11908.007617356876</v>
+        <v>10531.331663117438</v>
       </c>
       <c r="K39" s="21">
         <f>K36*C7</f>
-        <v>12265.247837892641</v>
+        <v>10583.98832025604</v>
       </c>
       <c r="L39" s="21">
         <f>L36*C7</f>
-        <v>12633.20526480493</v>
+        <v>10636.908260674467</v>
       </c>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="18"/>
       <c r="C40" s="20">
         <f>(C39-L19)/L19</f>
-        <v>0.16910768165051801</v>
+        <v>0.16910768165051929</v>
       </c>
       <c r="D40" s="20">
         <f>(D39-C39)/C39</f>
-        <v>3.4899998456239589E-2</v>
+        <v>3.4899998456240304E-2</v>
       </c>
       <c r="E40" s="20">
         <f t="shared" ref="E40:L40" si="6">(E39-D39)/D39</f>
-        <v>3.7300001829860513E-2</v>
+        <v>3.7300001829861019E-2</v>
       </c>
       <c r="F40" s="20">
         <f t="shared" si="6"/>
-        <v>2.9999999329447864E-2</v>
+        <v>4.9999998882401904E-3</v>
       </c>
       <c r="G40" s="20">
         <f t="shared" si="6"/>
-        <v>2.9999999329447666E-2</v>
+        <v>4.9999998882395563E-3</v>
       </c>
       <c r="H40" s="20">
         <f t="shared" si="6"/>
-        <v>2.9999999329447764E-2</v>
+        <v>4.9999998882387653E-3</v>
       </c>
       <c r="I40" s="20">
         <f t="shared" si="6"/>
-        <v>2.999999932944767E-2</v>
+        <v>4.9999998882397029E-3</v>
       </c>
       <c r="J40" s="20">
         <f t="shared" si="6"/>
-        <v>2.9999999329447694E-2</v>
+        <v>4.9999998882396274E-3</v>
       </c>
       <c r="K40" s="20">
         <f t="shared" si="6"/>
-        <v>2.9999999329447736E-2</v>
+        <v>4.9999998882395945E-3</v>
       </c>
       <c r="L40" s="20">
         <f t="shared" si="6"/>
-        <v>2.9999999329447736E-2</v>
+        <v>4.9999998882413162E-3</v>
       </c>
     </row>
     <row r="41" spans="2:12">
@@ -20954,43 +20957,43 @@
       </c>
       <c r="C42" s="21">
         <f>C39*C8</f>
-        <v>7542.0001898346118</v>
+        <v>10329.943421697424</v>
       </c>
       <c r="D42" s="21">
         <f>D39*C8</f>
-        <v>7805.2159848167985</v>
+        <v>10690.458431167714</v>
       </c>
       <c r="E42" s="21">
         <f>E39*C8</f>
-        <v>8096.3505553329214</v>
+        <v>11089.212550212322</v>
       </c>
       <c r="F42" s="21">
         <f>F39*C8</f>
-        <v>8339.2410665638836</v>
+        <v>11144.658611724055</v>
       </c>
       <c r="G42" s="21">
         <f>G39*C8</f>
-        <v>8589.4182929689032</v>
+        <v>11200.381903537143</v>
       </c>
       <c r="H42" s="21">
         <f>H39*C8</f>
-        <v>8847.1008359983171</v>
+        <v>11256.38381180306</v>
       </c>
       <c r="I42" s="21">
         <f>I39*C8</f>
-        <v>9112.5138551458222</v>
+        <v>11312.665729604059</v>
       </c>
       <c r="J42" s="21">
         <f>J39*C8</f>
-        <v>9385.8892646897802</v>
+        <v>11369.229056987771</v>
       </c>
       <c r="K42" s="21">
         <f>K39*C8</f>
-        <v>9667.4659363367427</v>
+        <v>11426.075201002081</v>
       </c>
       <c r="L42" s="21">
         <f>L39*C8</f>
-        <v>9957.4899079443039</v>
+        <v>11483.205575730128</v>
       </c>
     </row>
     <row r="43" spans="2:12">
@@ -20999,43 +21002,43 @@
       </c>
       <c r="C43" s="20">
         <f>(C42-L22)/L22</f>
-        <v>-0.38421493352624864</v>
+        <v>-0.15658648415659485</v>
       </c>
       <c r="D43" s="20">
         <f>(D42-C42)/C42</f>
-        <v>3.4899998456239596E-2</v>
+        <v>3.4899998456240269E-2</v>
       </c>
       <c r="E43" s="20">
         <f t="shared" ref="E43:L43" si="7">(E42-D42)/D42</f>
-        <v>3.7300001829860492E-2</v>
+        <v>3.730000182986095E-2</v>
       </c>
       <c r="F43" s="20">
         <f t="shared" si="7"/>
-        <v>2.9999999329447823E-2</v>
+        <v>4.99999988824018E-3</v>
       </c>
       <c r="G43" s="20">
         <f t="shared" si="7"/>
-        <v>2.9999999329447746E-2</v>
+        <v>4.9999998882395763E-3</v>
       </c>
       <c r="H43" s="20">
         <f t="shared" si="7"/>
-        <v>2.9999999329447812E-2</v>
+        <v>4.9999998882386959E-3</v>
       </c>
       <c r="I43" s="20">
         <f t="shared" si="7"/>
-        <v>2.9999999329447635E-2</v>
+        <v>4.9999998882397922E-3</v>
       </c>
       <c r="J43" s="20">
         <f t="shared" si="7"/>
-        <v>2.999999932944776E-2</v>
+        <v>4.9999998882395797E-3</v>
       </c>
       <c r="K43" s="20">
         <f t="shared" si="7"/>
-        <v>2.9999999329447562E-2</v>
+        <v>4.9999998882395919E-3</v>
       </c>
       <c r="L43" s="20">
         <f t="shared" si="7"/>
-        <v>2.9999999329447743E-2</v>
+        <v>4.9999998882413067E-3</v>
       </c>
     </row>
     <row r="45" spans="2:12">
@@ -21044,43 +21047,43 @@
       </c>
       <c r="C45" s="21">
         <f>L25*(1+C46)</f>
-        <v>15361.552305822112</v>
+        <v>15361.552305822141</v>
       </c>
       <c r="D45" s="21">
         <f>C45*(1+D46)</f>
-        <v>16129.629932558466</v>
+        <v>16129.629932558482</v>
       </c>
       <c r="E45" s="21">
         <f t="shared" ref="E45:L45" si="8">D45*(1+E46)</f>
-        <v>16936.111441203899</v>
+        <v>16936.111441203968</v>
       </c>
       <c r="F45" s="21">
         <f t="shared" si="8"/>
-        <v>17782.917025882482</v>
+        <v>17782.91702588262</v>
       </c>
       <c r="G45" s="21">
         <f t="shared" si="8"/>
-        <v>18672.06289042591</v>
+        <v>18672.06289042607</v>
       </c>
       <c r="H45" s="21">
         <f t="shared" si="8"/>
-        <v>19605.666048858977</v>
+        <v>19605.666048859213</v>
       </c>
       <c r="I45" s="21">
         <f t="shared" si="8"/>
-        <v>20585.949365909284</v>
+        <v>20585.949365909557</v>
       </c>
       <c r="J45" s="21">
         <f t="shared" si="8"/>
-        <v>21615.246849542476</v>
+        <v>21615.246849542847</v>
       </c>
       <c r="K45" s="21">
         <f t="shared" si="8"/>
-        <v>22696.009208124215</v>
+        <v>22696.009208124597</v>
       </c>
       <c r="L45" s="21">
         <f t="shared" si="8"/>
-        <v>23830.809685440268</v>
+        <v>23830.809685440719</v>
       </c>
     </row>
     <row r="46" spans="2:12">
@@ -21235,43 +21238,43 @@
       </c>
       <c r="C53" s="21">
         <f t="shared" ref="C53:L53" si="9">C42/C51</f>
-        <v>7241.571476053844</v>
+        <v>9918.4595265111639</v>
       </c>
       <c r="D53" s="21">
         <f t="shared" si="9"/>
-        <v>7195.7735972670407</v>
+        <v>9855.7322015584232</v>
       </c>
       <c r="E53" s="21">
         <f t="shared" si="9"/>
-        <v>7166.8473089776544</v>
+        <v>9816.113146412843</v>
       </c>
       <c r="F53" s="21">
         <f t="shared" si="9"/>
-        <v>7087.8033382381427</v>
+        <v>9472.2226976285128</v>
       </c>
       <c r="G53" s="21">
         <f t="shared" si="9"/>
-        <v>7009.6311524050061</v>
+        <v>9140.3798525138936</v>
       </c>
       <c r="H53" s="21">
         <f t="shared" si="9"/>
-        <v>6932.3211364637691</v>
+        <v>8820.1625442314344</v>
       </c>
       <c r="I53" s="21">
         <f t="shared" si="9"/>
-        <v>6855.8637814450358</v>
+        <v>8511.1634923210586</v>
       </c>
       <c r="J53" s="21">
         <f t="shared" si="9"/>
-        <v>6780.2496832549177</v>
+        <v>8212.989684685117</v>
       </c>
       <c r="K53" s="21">
         <f t="shared" si="9"/>
-        <v>6705.4695415183332</v>
+        <v>7925.2618777211537</v>
       </c>
       <c r="L53" s="21">
         <f t="shared" si="9"/>
-        <v>6631.5141584351013</v>
+        <v>7647.6141139666406</v>
       </c>
     </row>
     <row r="54" spans="2:12">
@@ -21352,7 +21355,7 @@
       </c>
       <c r="C59" s="25">
         <f>L53*(1+C5)/(C4-C5)</f>
-        <v>412290.68313397473</v>
+        <v>475463.06500480801</v>
       </c>
     </row>
     <row r="60" spans="2:12" ht="15" thickBot="1">
@@ -21361,7 +21364,7 @@
       </c>
       <c r="C60" s="23">
         <f>C59/C55</f>
-        <v>263640.80540402554</v>
+        <v>304036.61912728916</v>
       </c>
     </row>
     <row r="61" spans="2:12" ht="15" thickTop="1"/>
@@ -21371,7 +21374,7 @@
       </c>
       <c r="C62" s="71">
         <f>(SUM(C53:L53)+C59)</f>
-        <v>481897.72830803355</v>
+        <v>564783.16414235823</v>
       </c>
     </row>
     <row r="63" spans="2:12" ht="15" thickTop="1">
@@ -21383,7 +21386,7 @@
       </c>
       <c r="C64" s="70">
         <f>C62/(C11/1000000)</f>
-        <v>212.57067256440695</v>
+        <v>249.13239885217678</v>
       </c>
       <c r="D64" s="29"/>
       <c r="E64" s="30"/>
@@ -21422,7 +21425,7 @@
       </c>
       <c r="C69" s="25">
         <f>L45*C9</f>
-        <v>206136.49468832585</v>
+        <v>206136.49468832952</v>
       </c>
     </row>
     <row r="70" spans="2:12" ht="15" thickBot="1">
@@ -21431,7 +21434,7 @@
       </c>
       <c r="C70" s="23">
         <f>C69/C55</f>
-        <v>131814.74553266345</v>
+        <v>131814.74553266593</v>
       </c>
     </row>
     <row r="71" spans="2:12" ht="15" thickTop="1">
@@ -21444,7 +21447,7 @@
       </c>
       <c r="C72" s="72">
         <f>SUM(C53:L53)+C70</f>
-        <v>201421.7907067223</v>
+        <v>221134.84467021615</v>
       </c>
     </row>
     <row r="73" spans="2:12" ht="15" thickTop="1"/>
@@ -21454,7 +21457,7 @@
       </c>
       <c r="C74" s="70">
         <f>C72/(C11/1000000)</f>
-        <v>88.849486113963479</v>
+        <v>97.545142667546116</v>
       </c>
     </row>
   </sheetData>
@@ -21551,7 +21554,7 @@
   <dimension ref="B2:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -21874,54 +21877,54 @@
       </c>
       <c r="C16" s="90">
         <f>P15*(1+P16)</f>
-        <v>2.6957501173019405</v>
+        <v>2.708900116110601</v>
       </c>
       <c r="D16" s="90">
         <f>C16*(1+P16)</f>
-        <v>2.7631438702344888</v>
+        <v>2.790167117777465</v>
       </c>
       <c r="E16" s="90">
         <f>D16*(1+P16)</f>
-        <v>2.8322224669903506</v>
+        <v>2.8738721294398371</v>
       </c>
       <c r="F16" s="90">
         <f>E16*(1+P16)</f>
-        <v>2.9030280286651093</v>
+        <v>2.9600882913959601</v>
       </c>
       <c r="G16" s="90">
         <f>F16*(1+P16)</f>
-        <v>2.9756037293817368</v>
+        <v>3.0488909381529514</v>
       </c>
       <c r="H16" s="90">
         <f>G16*(1+P16)</f>
-        <v>3.0499938226162802</v>
+        <v>3.1403576642531048</v>
       </c>
       <c r="I16" s="90">
         <f>H16*(1+P16)</f>
-        <v>3.126243668181687</v>
+        <v>3.2345683920749262</v>
       </c>
       <c r="J16" s="90">
         <f>I16*(1+P16)</f>
-        <v>3.204399759886229</v>
+        <v>3.3316054416682381</v>
       </c>
       <c r="K16" s="90">
         <f>J16*(1+P16)</f>
-        <v>3.2845097538833845</v>
+        <v>3.431553602684279</v>
       </c>
       <c r="L16" s="90">
         <f>K16*(1+P16)</f>
-        <v>3.3666224977304688</v>
+        <v>3.53450020846378</v>
       </c>
       <c r="M16" s="159">
         <f>L16*(1+P16)/(P17-P16)</f>
-        <v>46.010507468983064</v>
+        <v>52.007645392482601</v>
       </c>
       <c r="N16" s="160"/>
       <c r="O16" s="88" t="s">
         <v>122</v>
       </c>
       <c r="P16" s="104">
-        <v>2.5000000000000001E-2</v>
+        <v>2.9999999329447746E-2</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15" thickBot="1">
@@ -21930,47 +21933,47 @@
       </c>
       <c r="C17" s="90">
         <f>C16/(1+P17)</f>
-        <v>2.4506819248199458</v>
+        <v>2.4626364691914553</v>
       </c>
       <c r="D17" s="90">
         <f>D16/(1+P17)^2</f>
-        <v>2.2835899754004036</v>
+        <v>2.3059232378326153</v>
       </c>
       <c r="E17" s="90">
         <f>E16/(1+P17)^3</f>
-        <v>2.1278906588958302</v>
+        <v>2.159182666746684</v>
       </c>
       <c r="F17" s="90">
         <f>F16/(1+P17)^4</f>
-        <v>1.9828072048802052</v>
+        <v>2.0217801320920423</v>
       </c>
       <c r="G17" s="90">
         <f>G16/(1+P17)^5</f>
-        <v>1.8476158045474638</v>
+        <v>1.8931213951809989</v>
       </c>
       <c r="H17" s="90">
         <f>H16/(1+P17)^6</f>
-        <v>1.7216419996919545</v>
+        <v>1.7726500325154502</v>
       </c>
       <c r="I17" s="90">
         <f>I16/(1+P17)^7</f>
-        <v>1.6042573178947754</v>
+        <v>1.659845029365691</v>
       </c>
       <c r="J17" s="90">
         <f>J16/(1+P17)^8</f>
-        <v>1.4948761371292227</v>
+        <v>1.5542185264851407</v>
       </c>
       <c r="K17" s="90">
         <f>K16/(1+P17)^9</f>
-        <v>1.3929527641431392</v>
+        <v>1.4553137102159222</v>
       </c>
       <c r="L17" s="90">
         <f>L16/(1+P17)^10</f>
-        <v>1.2979787120424704</v>
+        <v>1.3627028368604905</v>
       </c>
       <c r="M17" s="159">
         <f>M16/POWER((1+P17),10)</f>
-        <v>17.739042397913757</v>
+        <v>20.05119868010236</v>
       </c>
       <c r="N17" s="160"/>
       <c r="O17" s="91" t="s">
@@ -21990,7 +21993,7 @@
       </c>
       <c r="C19" s="95">
         <f>SUM(C17:N17)*(1-P18)</f>
-        <v>35.943334897359172</v>
+        <v>38.698572716588849</v>
       </c>
       <c r="D19" s="96"/>
       <c r="E19" s="96"/>
@@ -22088,54 +22091,54 @@
       </c>
       <c r="C25" s="90">
         <f>P24*(1+P25)</f>
-        <v>2.7089001178741454</v>
+        <v>2.7352001166671527</v>
       </c>
       <c r="D25" s="90">
         <f>C25*(1+P25)</f>
-        <v>2.79016712141037</v>
+        <v>2.8446081188883756</v>
       </c>
       <c r="E25" s="90">
         <f>D25*(1+P25)</f>
-        <v>2.873872135052681</v>
+        <v>2.9583924411006364</v>
       </c>
       <c r="F25" s="90">
         <f>E25*(1+P25)</f>
-        <v>2.9600882991042616</v>
+        <v>3.0767281360996557</v>
       </c>
       <c r="G25" s="90">
         <f>F25*(1+P25)</f>
-        <v>3.0488909480773896</v>
+        <v>3.1997972587928363</v>
       </c>
       <c r="H25" s="90">
         <f>G25*(1+P25)</f>
-        <v>3.1403576765197112</v>
+        <v>3.327789146283711</v>
       </c>
       <c r="I25" s="90">
         <f>H25*(1+P25)</f>
-        <v>3.2345684068153027</v>
+        <v>3.4609007091597821</v>
       </c>
       <c r="J25" s="90">
         <f>I25*(1+P25)</f>
-        <v>3.3316054590197619</v>
+        <v>3.5993367344318838</v>
       </c>
       <c r="K25" s="90">
         <f>J25*(1+P25)</f>
-        <v>3.4315536227903549</v>
+        <v>3.7433102005910963</v>
       </c>
       <c r="L25" s="90">
         <f>K25*(1+P25)</f>
-        <v>3.5345002314740657</v>
+        <v>3.8930426052679628</v>
       </c>
       <c r="M25" s="159">
         <f>L25*(1+P25)/(P26-P25)</f>
-        <v>52.007646263118389</v>
+        <v>67.479404094445684</v>
       </c>
       <c r="N25" s="160"/>
       <c r="O25" s="88" t="s">
         <v>122</v>
       </c>
       <c r="P25" s="104">
-        <v>0.03</v>
+        <v>3.9999999105930328E-2</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="15" thickBot="1">
@@ -22144,47 +22147,47 @@
       </c>
       <c r="C26" s="90">
         <f>C25/(1+P26)</f>
-        <v>2.4626364707946773</v>
+        <v>2.4865455606065021</v>
       </c>
       <c r="D26" s="90">
         <f>D25/(1+P26)^2</f>
-        <v>2.3059232408350163</v>
+        <v>2.3509158007341941</v>
       </c>
       <c r="E26" s="90">
         <f>E25/(1+P26)^3</f>
-        <v>2.1591826709636965</v>
+        <v>2.2226840278742563</v>
       </c>
       <c r="F26" s="90">
         <f>F25/(1+P26)^4</f>
-        <v>2.0217801373569162</v>
+        <v>2.1014467154563587</v>
       </c>
       <c r="G26" s="90">
         <f>G25/(1+P26)^5</f>
-        <v>1.893121401343294</v>
+        <v>1.9868223474507052</v>
       </c>
       <c r="H26" s="90">
         <f>H25/(1+P26)^6</f>
-        <v>1.7726500394396296</v>
+        <v>1.8784502177930704</v>
       </c>
       <c r="I26" s="90">
         <f>I25/(1+P26)^7</f>
-        <v>1.6598450369298348</v>
+        <v>1.7759892952957512</v>
       </c>
       <c r="J26" s="90">
         <f>J25/(1+P26)^8</f>
-        <v>1.5542185345797546</v>
+        <v>1.6791171504724742</v>
       </c>
       <c r="K26" s="90">
         <f>K25/(1+P26)^9</f>
-        <v>1.4553137187428611</v>
+        <v>1.5875289409001119</v>
       </c>
       <c r="L26" s="90">
         <f>L25/(1+P26)^10</f>
-        <v>1.3627028457319517</v>
+        <v>1.5009364519243233</v>
       </c>
       <c r="M26" s="159">
         <f>M25/POWER((1+P26),10)</f>
-        <v>20.051199015770145</v>
+        <v>26.016231423317183</v>
       </c>
       <c r="N26" s="160"/>
       <c r="O26" s="91" t="s">
@@ -22204,7 +22207,7 @@
       </c>
       <c r="C28" s="95">
         <f>SUM(C26:N26)*(1-P27)</f>
-        <v>38.698573112487779</v>
+        <v>45.586667931824934</v>
       </c>
       <c r="D28" s="96"/>
       <c r="E28" s="96"/>

--- a/target/classes/companies/consumer_defense/BritishAmericanTabacco/BTI_BritishAmericanTabacco.xlsx
+++ b/target/classes/companies/consumer_defense/BritishAmericanTabacco/BTI_BritishAmericanTabacco.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DEEC4D-EF3A-437F-98C4-604DD4A11E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A449CDF3-4847-49B3-B1C1-32D83E004718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valuation Metrics" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="165">
   <si>
     <t>WACC</t>
   </si>
@@ -497,6 +497,15 @@
   </si>
   <si>
     <t>EPS Growth esitmation (%)</t>
+  </si>
+  <si>
+    <t>CE_Celanese</t>
+  </si>
+  <si>
+    <t>sector median (19.16)</t>
+  </si>
+  <si>
+    <t>sector median (14.4)</t>
   </si>
   <si>
     <t>Long Term Debt</t>
@@ -1244,7 +1253,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1354,7 +1363,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="12" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1363,7 +1372,7 @@
     <xf numFmtId="2" fontId="5" fillId="3" borderId="5" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="true" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1378,11 +1387,11 @@
     <xf numFmtId="166" fontId="16" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1404,18 +1413,18 @@
     <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="25" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1424,7 +1433,7 @@
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1746,34 +1755,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.27516369667640167</c:v>
+                  <c:v>0.16912442396313365</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24286012502897802</c:v>
+                  <c:v>9.1737724198765067E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32738094193624867</c:v>
+                  <c:v>5.3577722946774764E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31509733029344994</c:v>
+                  <c:v>0.16700686583781776</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8496451790527448</c:v>
+                  <c:v>0.13729641693811076</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.24628453083811624</c:v>
+                  <c:v>0.16869322152341021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22042742804302104</c:v>
+                  <c:v>0.13530252501191042</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.24829301213442323</c:v>
+                  <c:v>0.35101679929266139</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26479517722093837</c:v>
+                  <c:v>0.22138924680801217</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23926956489863485</c:v>
+                  <c:v>0.1958027499224646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1911,34 +1920,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.37011807492348664</c:v>
+                  <c:v>0.28064516129032258</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33032707651224136</c:v>
+                  <c:v>0.15524845633637166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38041822835876882</c:v>
+                  <c:v>0.1214310891787099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35672160946173959</c:v>
+                  <c:v>0.22805715346075339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3635916015788806</c:v>
+                  <c:v>0.19006514657980456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.42262766453125988</c:v>
+                  <c:v>0.23522012578616353</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.406847706877977</c:v>
+                  <c:v>0.18897887883118947</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.44273755165577616</c:v>
+                  <c:v>0.18037135278514588</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.44035191462054768</c:v>
+                  <c:v>0.2722267775565187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.42769833716575906</c:v>
+                  <c:v>0.19187428925876149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2076,34 +2085,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.26441695895440898</c:v>
+                  <c:v>5.9139784946236562E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2325528981966149</c:v>
+                  <c:v>4.1752425757130257E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33157828191252497</c:v>
+                  <c:v>6.0274938315121609E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27909973203187716</c:v>
+                  <c:v>0.12005938021896456</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22920366724612926</c:v>
+                  <c:v>8.7296416938110744E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.39094400058118334</c:v>
+                  <c:v>0.17064989517819706</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.32329853423147076</c:v>
+                  <c:v>0.17214546609496587</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.36153802937986629</c:v>
+                  <c:v>0.17312113174182139</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3590173441667277</c:v>
+                  <c:v>0.15110694623404006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.35805450609214085</c:v>
+                  <c:v>0.13191357386539854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2634,34 +2643,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15.819999694824219</c:v>
+                  <c:v>17.280000686645508</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.079999923706055</c:v>
+                  <c:v>6.9099998474121094</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.290000915527344</c:v>
+                  <c:v>19.739999771118164</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.799999237060547</c:v>
+                  <c:v>25.079999923706055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.940000534057617</c:v>
+                  <c:v>18.399999618530273</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3799999952316284</c:v>
+                  <c:v>9.2899999618530273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.060000419616699</c:v>
+                  <c:v>16.959999084472656</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.9300003051757813</c:v>
+                  <c:v>26.139999389648438</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.270000457763672</c:v>
+                  <c:v>6.8400001525878906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.130000114440918</c:v>
+                  <c:v>6.7399997711181641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2848,34 +2857,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>13.770000457763672</c:v>
+                  <c:v>13.220000267028809</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.229999542236328</c:v>
+                  <c:v>9.8900003433227539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.799999237060547</c:v>
+                  <c:v>11.619999885559082</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.340000152587891</c:v>
+                  <c:v>10.770000457763672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.670000076293945</c:v>
+                  <c:v>21.469999313354492</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.5799999237060547</c:v>
+                  <c:v>9.7899999618530273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.5100002288818359</c:v>
+                  <c:v>10.529999732971191</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.190000057220459</c:v>
+                  <c:v>11.140000343322754</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.440000057220459</c:v>
+                  <c:v>13.199999809265137</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.0900001525878906</c:v>
+                  <c:v>6.0100002288818359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3303,34 +3312,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.4100000858306885</c:v>
+                  <c:v>6.9099998474121094</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5799999237060547</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5199999809265137</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.377000093460083</c:v>
+                  <c:v>6.179999828338623</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.584999084472656</c:v>
+                  <c:v>6.0900001525878906</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.513200044631958</c:v>
+                  <c:v>8.9099998474121094</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1795001029968262</c:v>
+                  <c:v>6.8400001525878906</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5810999870300293</c:v>
+                  <c:v>16.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0784997940063477</c:v>
+                  <c:v>16.860000610351563</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.6105000972747803</c:v>
+                  <c:v>17.340000152587891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3758,34 +3767,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>23878.83984375</c:v>
+                  <c:v>6510</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23025.599609375</c:v>
+                  <c:v>6802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20035.359375</c:v>
+                  <c:v>5674</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19992.029296875</c:v>
+                  <c:v>5389</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26152.330078125</c:v>
+                  <c:v>6140</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32691.919921875</c:v>
+                  <c:v>7155</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33042.33984375</c:v>
+                  <c:v>6297</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33096.37890625</c:v>
+                  <c:v>5655</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35318.0703125</c:v>
+                  <c:v>8537</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34206.46875</c:v>
+                  <c:v>9673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4192,34 +4201,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15203.58984375</c:v>
+                  <c:v>2887</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16116.759765625</c:v>
+                  <c:v>2586</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22637.630859375</c:v>
+                  <c:v>2468</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22346.189453125</c:v>
+                  <c:v>2890</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56742</c:v>
+                  <c:v>3315</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57775.48046875</c:v>
+                  <c:v>2970</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48271.9296875</c:v>
+                  <c:v>3409</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51266.26953125</c:v>
+                  <c:v>3227</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49044.3203125</c:v>
+                  <c:v>3176</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47900.19140625</c:v>
+                  <c:v>13373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4329,34 +4338,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8837.990234375</c:v>
+                  <c:v>1827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7605.97900390625</c:v>
+                  <c:v>1056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7621.81591796875</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7131.5888671875</c:v>
+                  <c:v>1229</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9508.767578125</c:v>
+                  <c:v>1167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13816.509765625</c:v>
+                  <c:v>1683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13443.2001953125</c:v>
+                  <c:v>1190</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14653.009765625</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15552.3798828125</c:v>
+                  <c:v>2324</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14630.0498046875</c:v>
+                  <c:v>1856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4452,34 +4461,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.7202542026598153</c:v>
+                  <c:v>1.5801860974274768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1189592762940594</c:v>
+                  <c:v>2.4488636363636362</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9701098928413945</c:v>
+                  <c:v>3.5820029027576199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1334096607755959</c:v>
+                  <c:v>2.3515052888527257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.9673348342781507</c:v>
+                  <c:v>2.8406169665809768</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1816262897662773</c:v>
+                  <c:v>1.7647058823529411</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.590806428987936</c:v>
+                  <c:v>2.8647058823529412</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4986852770355279</c:v>
+                  <c:v>3.1637254901960783</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1534929497639559</c:v>
+                  <c:v>1.3666092943201378</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.274096263903536</c:v>
+                  <c:v>7.2052801724137927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4948,34 +4957,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6313.97021484375</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5354.669921875</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6643.2900390625</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5579.77001953125</c:v>
+                  <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5994.2099609375</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12780.7099609375</c:v>
+                  <c:v>1221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10682.5400390625</c:v>
+                  <c:v>1084</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11965.599609375</c:v>
+                  <c:v>979</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12679.7998046875</c:v>
+                  <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12247.7802734375</c:v>
+                  <c:v>1276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5085,34 +5094,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4500</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4880</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4594</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4143</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4681</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5992</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6072</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6267</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6950</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6275</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5224,34 +5233,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.71270529427281437</c:v>
+                  <c:v>0.21558441558441557</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91135402764307294</c:v>
+                  <c:v>0.50704225352112675</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69152482775662527</c:v>
+                  <c:v>0.50877192982456143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74250372067271131</c:v>
+                  <c:v>0.31066460587326122</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78092025980149138</c:v>
+                  <c:v>0.44962686567164178</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46883154522039328</c:v>
+                  <c:v>0.22932022932022933</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.56840414150536422</c:v>
+                  <c:v>0.2767527675276753</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.52375143783766842</c:v>
+                  <c:v>0.2992849846782431</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5481159093245862</c:v>
+                  <c:v>0.23565891472868217</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.51233773466764188</c:v>
+                  <c:v>0.23275862068965517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5744,34 +5753,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>27169.599609375</c:v>
+                  <c:v>5836</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28075.349609375</c:v>
+                  <c:v>6098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33179.75</c:v>
+                  <c:v>5799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37154.19921875</c:v>
+                  <c:v>5885</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>163770.40625</c:v>
+                  <c:v>6746</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>178445.40625</c:v>
+                  <c:v>6439</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>163099.703125</c:v>
+                  <c:v>6711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>159316.09375</c:v>
+                  <c:v>7146</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>171279.703125</c:v>
+                  <c:v>8168</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>170861.703125</c:v>
+                  <c:v>19661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5881,34 +5890,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>14893.759765625</c:v>
+                  <c:v>3182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15050.4404296875</c:v>
+                  <c:v>2698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15005.1201171875</c:v>
+                  <c:v>2787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16750.150390625</c:v>
+                  <c:v>2472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17999.380859375</c:v>
+                  <c:v>2792</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16891.890625</c:v>
+                  <c:v>2874</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16949.5703125</c:v>
+                  <c:v>2765</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17477.810546875</c:v>
+                  <c:v>3763</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17610.91015625</c:v>
+                  <c:v>3807</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19059.390625</c:v>
+                  <c:v>6611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6310,34 +6319,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>13200.650390625</c:v>
+                  <c:v>1545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14452.1796875</c:v>
+                  <c:v>1338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13769.7197265625</c:v>
+                  <c:v>1550</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16068.4404296875</c:v>
+                  <c:v>1077</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20033.109375</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21795.94921875</c:v>
+                  <c:v>1779</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24035.08984375</c:v>
+                  <c:v>1754</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19873.75</c:v>
+                  <c:v>1973</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20824.509765625</c:v>
+                  <c:v>2505</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22082.380859375</c:v>
+                  <c:v>4068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6447,34 +6456,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>18010.830078125</c:v>
+                  <c:v>4774</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19091.5703125</c:v>
+                  <c:v>4380</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26721.4609375</c:v>
+                  <c:v>4207</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26443.259765625</c:v>
+                  <c:v>4259</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83086.359375</c:v>
+                  <c:v>4680</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85861.0234375</c:v>
+                  <c:v>4155</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74088.2890625</c:v>
+                  <c:v>4824</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>76085.9921875</c:v>
+                  <c:v>5041</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75382.9765625</c:v>
+                  <c:v>4933</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74192.96875</c:v>
+                  <c:v>16099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6876,34 +6885,34 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10851.87890625</c:v>
+                  <c:v>2699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9582.0400390625</c:v>
+                  <c:v>3078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7693.689453125</c:v>
+                  <c:v>2829</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11392.6494140625</c:v>
+                  <c:v>3021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>78650.318359375</c:v>
+                  <c:v>3299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87680.32421875</c:v>
+                  <c:v>3379</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81925.89453125</c:v>
+                  <c:v>2898</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80834.162109375</c:v>
+                  <c:v>3895</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92683.126953125</c:v>
+                  <c:v>4537</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>93645.744140625</c:v>
+                  <c:v>6105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6993,34 +7002,34 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>31211.48046875</c:v>
+                  <c:v>6319</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33543.75</c:v>
+                  <c:v>5718</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40491.1806640625</c:v>
+                  <c:v>5757</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42511.7001953125</c:v>
+                  <c:v>5336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>103119.46875</c:v>
+                  <c:v>6239</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>107656.97265625</c:v>
+                  <c:v>5934</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98123.37890625</c:v>
+                  <c:v>6578</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>95959.7421875</c:v>
+                  <c:v>7014</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>96207.486328125</c:v>
+                  <c:v>7438</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>96275.349609375</c:v>
+                  <c:v>20167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7132,34 +7141,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.8761360809853995</c:v>
+                  <c:v>2.341237495368655</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5006898179567507</c:v>
+                  <c:v>1.8576998050682261</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2629081158995721</c:v>
+                  <c:v>2.0349946977730649</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7315025373148272</c:v>
+                  <c:v>1.7663025488248925</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3111131766666055</c:v>
+                  <c:v>1.8911791451955138</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2278350201769452</c:v>
+                  <c:v>1.7561408700799053</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1977089718418832</c:v>
+                  <c:v>2.2698412698412698</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.187118659777272</c:v>
+                  <c:v>1.8007702182284981</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0380259006235564</c:v>
+                  <c:v>1.6394093013004187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0280803521065645</c:v>
+                  <c:v>3.3033579033579032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7595,34 +7604,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>14893.759765625</c:v>
+                  <c:v>3182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15050.4404296875</c:v>
+                  <c:v>2698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15005.1201171875</c:v>
+                  <c:v>2787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16750.150390625</c:v>
+                  <c:v>2472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17999.380859375</c:v>
+                  <c:v>2792</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16891.890625</c:v>
+                  <c:v>2874</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16949.5703125</c:v>
+                  <c:v>2765</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17477.810546875</c:v>
+                  <c:v>3763</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17610.91015625</c:v>
+                  <c:v>3807</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19059.390625</c:v>
+                  <c:v>6611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7712,34 +7721,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>13200.650390625</c:v>
+                  <c:v>1545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14452.1796875</c:v>
+                  <c:v>1338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13769.7197265625</c:v>
+                  <c:v>1550</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16068.4404296875</c:v>
+                  <c:v>1077</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20033.109375</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21795.94921875</c:v>
+                  <c:v>1779</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24035.08984375</c:v>
+                  <c:v>1754</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19873.75</c:v>
+                  <c:v>1973</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20824.509765625</c:v>
+                  <c:v>2505</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22082.380859375</c:v>
+                  <c:v>4068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7890,34 +7899,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.1282595421360779</c:v>
+                  <c:v>2.0595469255663432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0413958831901979</c:v>
+                  <c:v>2.0164424514200299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0897186300925101</c:v>
+                  <c:v>1.7980645161290323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0424253967844941</c:v>
+                  <c:v>2.2952646239554317</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89848163470005515</c:v>
+                  <c:v>1.790891597177678</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.77500137550645076</c:v>
+                  <c:v>1.615514333895447</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.70520103826062908</c:v>
+                  <c:v>1.5763968072976056</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.87944200500031444</c:v>
+                  <c:v>1.9072478459199189</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.84568186019535085</c:v>
+                  <c:v>1.5197604790419161</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.86310397173085618</c:v>
+                  <c:v>1.6251229105211407</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8470,34 +8479,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8837.990234375</c:v>
+                  <c:v>1827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7605.97900390625</c:v>
+                  <c:v>1056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7621.81591796875</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7131.5888671875</c:v>
+                  <c:v>1229</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9508.767578125</c:v>
+                  <c:v>1167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13816.509765625</c:v>
+                  <c:v>1683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13443.2001953125</c:v>
+                  <c:v>1190</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14653.009765625</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15552.3798828125</c:v>
+                  <c:v>2324</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14630.0498046875</c:v>
+                  <c:v>1856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8663,34 +8672,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6570.58984375</c:v>
+                  <c:v>1101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5592</c:v>
+                  <c:v>624</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6559.19482421875</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6299.43505859375</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48372.53125</c:v>
+                  <c:v>843</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8051.51416015625</c:v>
+                  <c:v>1207</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7283.43798828125</c:v>
+                  <c:v>852</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8217.599609375</c:v>
+                  <c:v>1985</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9352.0546875</c:v>
+                  <c:v>1890</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8184.56689453125</c:v>
+                  <c:v>1894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8859,34 +8868,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6313.97021484375</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5354.669921875</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6643.2900390625</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5579.77001953125</c:v>
+                  <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5994.2099609375</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12780.7099609375</c:v>
+                  <c:v>1221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10682.5400390625</c:v>
+                  <c:v>1084</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11965.599609375</c:v>
+                  <c:v>979</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12679.7998046875</c:v>
+                  <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12247.7802734375</c:v>
+                  <c:v>1276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9299,34 +9308,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15.620696828259453</c:v>
+                  <c:v>12.208915502328676</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.966718974736175</c:v>
+                  <c:v>7.094133697135061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.612560972493087</c:v>
+                  <c:v>3.5406475658047984</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.686320499632107</c:v>
+                  <c:v>10.769414861792509</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.611975520933605</c:v>
+                  <c:v>8.8383308869784027</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1218519396777387</c:v>
+                  <c:v>12.960377966283689</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0452470866590469</c:v>
+                  <c:v>8.99113550021106</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.6481238377856524</c:v>
+                  <c:v>18.195984966541388</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9510425769941211</c:v>
+                  <c:v>15.782881002087683</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.3094564868633762</c:v>
+                  <c:v>7.2091961023142508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9463,34 +9472,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>60.547946586150658</c:v>
+                  <c:v>40.792886254168209</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58.359180061901696</c:v>
+                  <c:v>20.2729044834308</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.254218592804733</c:v>
+                  <c:v>10.745846588900672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.293855095883593</c:v>
+                  <c:v>29.791459781529294</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61.503287283558805</c:v>
+                  <c:v>25.553197938769323</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.182806099198336</c:v>
+                  <c:v>35.720627404557561</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.8902758156678274</c:v>
+                  <c:v>29.399585921325052</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.165998378576546</c:v>
+                  <c:v>50.96277278562259</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.090353007004017</c:v>
+                  <c:v>41.657482918227906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.7399240292657954</c:v>
+                  <c:v>31.023751023751025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9627,34 +9636,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>23.569999694824219</c:v>
+                  <c:v>22.989999771118164</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.290000915527344</c:v>
+                  <c:v>12.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.629999160766602</c:v>
+                  <c:v>6.8600001335144043</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.629999160766602</c:v>
+                  <c:v>18.329999923706055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.639999389648438</c:v>
+                  <c:v>15.489999771118164</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.4499998092651367</c:v>
+                  <c:v>19.989999771118164</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2699999809265137</c:v>
+                  <c:v>14.409999847412109</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.1399998664855957</c:v>
+                  <c:v>29.430000305175781</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.4099998474121094</c:v>
+                  <c:v>24.680000305175781</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.9000000953674316</c:v>
+                  <c:v>14.380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10110,34 +10119,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1907.865966796875</c:v>
+                  <c:v>159.33399963378906</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1869.748046875</c:v>
+                  <c:v>156.16700744628906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1863</c:v>
+                  <c:v>152.28799438476563</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1865</c:v>
+                  <c:v>145.66799926757813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2051</c:v>
+                  <c:v>138.31700134277344</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2292</c:v>
+                  <c:v>135.41700744628906</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2291</c:v>
+                  <c:v>124.65200042724609</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2295</c:v>
+                  <c:v>118.48100280761719</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2297</c:v>
+                  <c:v>112.08399963378906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2267</c:v>
+                  <c:v>109.23500061035156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18068,7 +18077,7 @@
                   <m:oMathParaPr>
                     <m:jc m:val="centerGroup"/>
                   </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMath>
                     <m:r>
                       <a:rPr lang="en-US" sz="2000" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -18162,7 +18171,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -18684,24 +18693,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="75" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.08984375" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" customWidth="1"/>
-    <col min="20" max="20" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.90625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.453125"/>
+    <col min="4" max="4" customWidth="true" width="7.08984375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.1796875"/>
+    <col min="6" max="6" customWidth="true" width="19.54296875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="7.453125"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="15" thickBot="1"/>
     <row r="3" spans="2:22">
       <c r="B3" s="139" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C3" s="140"/>
       <c r="D3" s="140"/>
@@ -18855,49 +18864,49 @@
       <c r="E12" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="F12" s="123">
+      <c r="F12" s="123" t="n">
         <f>AVERAGE(L12:P12)</f>
-        <v>4.4151443855959869</v>
-      </c>
-      <c r="G12" s="119">
+        <v>4.415144385595987</v>
+      </c>
+      <c r="G12" s="119" t="n">
         <f>Financials!D76</f>
         <v>15.620696828259453</v>
       </c>
-      <c r="H12" s="119">
+      <c r="H12" s="119" t="n">
         <f>Financials!E76</f>
         <v>12.966718974736175</v>
       </c>
-      <c r="I12" s="119">
+      <c r="I12" s="119" t="n">
         <f>Financials!F76</f>
         <v>13.612560972493087</v>
       </c>
-      <c r="J12" s="119">
+      <c r="J12" s="119" t="n">
         <f>Financials!G76</f>
         <v>11.686320499632107</v>
       </c>
-      <c r="K12" s="119">
+      <c r="K12" s="119" t="n">
         <f>Financials!H76</f>
         <v>26.611975520933605</v>
       </c>
-      <c r="L12" s="119">
+      <c r="L12" s="119" t="n">
         <f>Financials!I76</f>
-        <v>4.1218519396777387</v>
-      </c>
-      <c r="M12" s="119">
+        <v>4.121851939677739</v>
+      </c>
+      <c r="M12" s="119" t="n">
         <f>Financials!J76</f>
-        <v>4.0452470866590469</v>
-      </c>
-      <c r="N12" s="119">
+        <v>4.045247086659047</v>
+      </c>
+      <c r="N12" s="119" t="n">
         <f>Financials!K76</f>
-        <v>4.6481238377856524</v>
-      </c>
-      <c r="O12" s="119">
+        <v>4.648123837785652</v>
+      </c>
+      <c r="O12" s="119" t="n">
         <f>Financials!L76</f>
-        <v>4.9510425769941211</v>
-      </c>
-      <c r="P12" s="119">
+        <v>4.951042576994121</v>
+      </c>
+      <c r="P12" s="119" t="n">
         <f>Financials!M76</f>
-        <v>4.3094564868633762</v>
+        <v>4.309456486863376</v>
       </c>
     </row>
     <row r="13" spans="2:22">
@@ -18929,49 +18938,49 @@
       <c r="E14" s="46">
         <v>0.08</v>
       </c>
-      <c r="F14" s="124">
+      <c r="F14" s="124" t="n">
         <f>AVERAGE(L14:P14)</f>
-        <v>9.4138714659425045</v>
-      </c>
-      <c r="G14" s="40">
+        <v>9.413871465942504</v>
+      </c>
+      <c r="G14" s="40" t="n">
         <f>Financials!D77</f>
-        <v>60.547946586150658</v>
-      </c>
-      <c r="H14" s="40">
+        <v>60.54794658615066</v>
+      </c>
+      <c r="H14" s="40" t="n">
         <f>Financials!E77</f>
-        <v>58.359180061901696</v>
-      </c>
-      <c r="I14" s="40">
+        <v>58.3591800619017</v>
+      </c>
+      <c r="I14" s="40" t="n">
         <f>Financials!F77</f>
-        <v>85.254218592804733</v>
-      </c>
-      <c r="J14" s="40">
+        <v>85.25421859280473</v>
+      </c>
+      <c r="J14" s="40" t="n">
         <f>Financials!G77</f>
-        <v>55.293855095883593</v>
-      </c>
-      <c r="K14" s="40">
+        <v>55.29385509588359</v>
+      </c>
+      <c r="K14" s="40" t="n">
         <f>Financials!H77</f>
         <v>61.503287283558805</v>
       </c>
-      <c r="L14" s="40">
+      <c r="L14" s="40" t="n">
         <f>Financials!I77</f>
         <v>9.182806099198336</v>
       </c>
-      <c r="M14" s="40">
+      <c r="M14" s="40" t="n">
         <f>Financials!J77</f>
-        <v>8.8902758156678274</v>
-      </c>
-      <c r="N14" s="40">
+        <v>8.890275815667827</v>
+      </c>
+      <c r="N14" s="40" t="n">
         <f>Financials!K77</f>
         <v>10.165998378576546</v>
       </c>
-      <c r="O14" s="40">
+      <c r="O14" s="40" t="n">
         <f>Financials!L77</f>
         <v>10.090353007004017</v>
       </c>
-      <c r="P14" s="40">
+      <c r="P14" s="40" t="n">
         <f>Financials!M77</f>
-        <v>8.7399240292657954</v>
+        <v>8.739924029265795</v>
       </c>
       <c r="R14" s="44"/>
       <c r="S14" s="44"/>
@@ -19006,53 +19015,53 @@
         <f>T11</f>
         <v>J</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="47" t="n">
         <f>WACC!$C$25</f>
-        <v>4.1486673821312575E-2</v>
-      </c>
-      <c r="F16" s="124">
+        <v>0.041486673821312575</v>
+      </c>
+      <c r="F16" s="124" t="n">
         <f>AVERAGE(L16:P16)</f>
-        <v>6.8339999198913572</v>
-      </c>
-      <c r="G16" s="40">
+        <v>6.833999919891357</v>
+      </c>
+      <c r="G16" s="40" t="n">
         <f>Financials!D78</f>
-        <v>23.569999694824219</v>
-      </c>
-      <c r="H16" s="40">
+        <v>23.56999969482422</v>
+      </c>
+      <c r="H16" s="40" t="n">
         <f>Financials!E78</f>
         <v>19.290000915527344</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="40" t="n">
         <f>Financials!F78</f>
-        <v>23.629999160766602</v>
-      </c>
-      <c r="J16" s="40">
+        <v>23.6299991607666</v>
+      </c>
+      <c r="J16" s="40" t="n">
         <f>Financials!G78</f>
-        <v>20.629999160766602</v>
-      </c>
-      <c r="K16" s="40">
+        <v>20.6299991607666</v>
+      </c>
+      <c r="K16" s="40" t="n">
         <f>Financials!H78</f>
-        <v>55.639999389648438</v>
-      </c>
-      <c r="L16" s="40">
+        <v>55.63999938964844</v>
+      </c>
+      <c r="L16" s="40" t="n">
         <f>Financials!I78</f>
-        <v>6.4499998092651367</v>
-      </c>
-      <c r="M16" s="40">
+        <v>6.449999809265137</v>
+      </c>
+      <c r="M16" s="40" t="n">
         <f>Financials!J78</f>
-        <v>6.2699999809265137</v>
-      </c>
-      <c r="N16" s="40">
+        <v>6.269999980926514</v>
+      </c>
+      <c r="N16" s="40" t="n">
         <f>Financials!K78</f>
-        <v>7.1399998664855957</v>
-      </c>
-      <c r="O16" s="40">
+        <v>7.139999866485596</v>
+      </c>
+      <c r="O16" s="40" t="n">
         <f>Financials!L78</f>
-        <v>7.4099998474121094</v>
-      </c>
-      <c r="P16" s="40">
+        <v>7.409999847412109</v>
+      </c>
+      <c r="P16" s="40" t="n">
         <f>Financials!M78</f>
-        <v>6.9000000953674316</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="R16" s="44"/>
       <c r="S16" s="44"/>
@@ -19093,49 +19102,49 @@
       <c r="E18" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="125">
+      <c r="F18" s="125" t="n">
         <f>AVERAGE(L18:P18)</f>
         <v>0.8136860501387202</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="42" t="n">
         <f>Financials!D59</f>
-        <v>1.1282595421360779</v>
-      </c>
-      <c r="H18" s="42">
+        <v>1.128259542136078</v>
+      </c>
+      <c r="H18" s="42" t="n">
         <f>Financials!E59</f>
-        <v>1.0413958831901979</v>
-      </c>
-      <c r="I18" s="42">
+        <v>1.041395883190198</v>
+      </c>
+      <c r="I18" s="42" t="n">
         <f>Financials!F59</f>
         <v>1.0897186300925101</v>
       </c>
-      <c r="J18" s="42">
+      <c r="J18" s="42" t="n">
         <f>Financials!G59</f>
-        <v>1.0424253967844941</v>
-      </c>
-      <c r="K18" s="42">
+        <v>1.042425396784494</v>
+      </c>
+      <c r="K18" s="42" t="n">
         <f>Financials!H59</f>
-        <v>0.89848163470005515</v>
-      </c>
-      <c r="L18" s="42">
+        <v>0.8984816347000552</v>
+      </c>
+      <c r="L18" s="42" t="n">
         <f>Financials!I59</f>
-        <v>0.77500137550645076</v>
-      </c>
-      <c r="M18" s="42">
+        <v>0.7750013755064508</v>
+      </c>
+      <c r="M18" s="42" t="n">
         <f>Financials!J59</f>
-        <v>0.70520103826062908</v>
-      </c>
-      <c r="N18" s="42">
+        <v>0.7052010382606291</v>
+      </c>
+      <c r="N18" s="42" t="n">
         <f>Financials!K59</f>
-        <v>0.87944200500031444</v>
-      </c>
-      <c r="O18" s="42">
+        <v>0.8794420050003144</v>
+      </c>
+      <c r="O18" s="42" t="n">
         <f>Financials!L59</f>
-        <v>0.84568186019535085</v>
-      </c>
-      <c r="P18" s="42">
+        <v>0.8456818601953509</v>
+      </c>
+      <c r="P18" s="42" t="n">
         <f>Financials!M59</f>
-        <v>0.86310397173085618</v>
+        <v>0.8631039717308562</v>
       </c>
       <c r="Q18" s="44"/>
       <c r="R18" s="44"/>
@@ -19166,7 +19175,7 @@
     <row r="20" spans="2:20" ht="18.5">
       <c r="B20" s="152"/>
       <c r="C20" s="36" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D20" s="55" t="str">
         <f>U11</f>
@@ -19175,47 +19184,47 @@
       <c r="E20" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="125">
+      <c r="F20" s="125" t="n">
         <f>AVERAGE(L20:P20)</f>
         <v>1.1357537809052443</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="42" t="n">
         <f>Financials!D58</f>
         <v>2.8761360809853995</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="42" t="n">
         <f>Financials!E58</f>
         <v>3.5006898179567507</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="42" t="n">
         <f>Financials!F58</f>
-        <v>5.2629081158995721</v>
-      </c>
-      <c r="J20" s="42">
+        <v>5.262908115899572</v>
+      </c>
+      <c r="J20" s="42" t="n">
         <f>Financials!G58</f>
-        <v>3.7315025373148272</v>
-      </c>
-      <c r="K20" s="42">
+        <v>3.731502537314827</v>
+      </c>
+      <c r="K20" s="42" t="n">
         <f>Financials!H58</f>
         <v>1.3111131766666055</v>
       </c>
-      <c r="L20" s="42">
+      <c r="L20" s="42" t="n">
         <f>Financials!I58</f>
         <v>1.2278350201769452</v>
       </c>
-      <c r="M20" s="42">
+      <c r="M20" s="42" t="n">
         <f>Financials!J58</f>
         <v>1.1977089718418832</v>
       </c>
-      <c r="N20" s="42">
+      <c r="N20" s="42" t="n">
         <f>Financials!K58</f>
         <v>1.187118659777272</v>
       </c>
-      <c r="O20" s="42">
+      <c r="O20" s="42" t="n">
         <f>Financials!L58</f>
         <v>1.0380259006235564</v>
       </c>
-      <c r="P20" s="42">
+      <c r="P20" s="42" t="n">
         <f>Financials!M58</f>
         <v>1.0280803521065645</v>
       </c>
@@ -19248,56 +19257,56 @@
     <row r="22" spans="2:20" ht="18.5">
       <c r="B22" s="132"/>
       <c r="C22" s="36" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D22" s="55" t="str">
         <f>U11</f>
         <v>K</v>
       </c>
       <c r="E22" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="F22" s="125">
+        <v>161</v>
+      </c>
+      <c r="F22" s="125" t="n">
         <f>AVERAGE(L22:P22)</f>
         <v>3.5397414418914463</v>
       </c>
-      <c r="G22" s="42">
+      <c r="G22" s="42" t="n">
         <f>Financials!D60</f>
         <v>1.7202542026598153</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="42" t="n">
         <f>Financials!E60</f>
         <v>2.1189592762940594</v>
       </c>
-      <c r="I22" s="42">
+      <c r="I22" s="42" t="n">
         <f>Financials!F60</f>
         <v>2.9701098928413945</v>
       </c>
-      <c r="J22" s="42">
+      <c r="J22" s="42" t="n">
         <f>Financials!G60</f>
-        <v>3.1334096607755959</v>
-      </c>
-      <c r="K22" s="42">
+        <v>3.133409660775596</v>
+      </c>
+      <c r="K22" s="42" t="n">
         <f>Financials!H60</f>
-        <v>5.9673348342781507</v>
-      </c>
-      <c r="L22" s="42">
+        <v>5.967334834278151</v>
+      </c>
+      <c r="L22" s="42" t="n">
         <f>Financials!I60</f>
-        <v>4.1816262897662773</v>
-      </c>
-      <c r="M22" s="42">
+        <v>4.181626289766277</v>
+      </c>
+      <c r="M22" s="42" t="n">
         <f>Financials!J60</f>
         <v>3.590806428987936</v>
       </c>
-      <c r="N22" s="42">
+      <c r="N22" s="42" t="n">
         <f>Financials!K60</f>
-        <v>3.4986852770355279</v>
-      </c>
-      <c r="O22" s="42">
+        <v>3.498685277035528</v>
+      </c>
+      <c r="O22" s="42" t="n">
         <f>Financials!L60</f>
-        <v>3.1534929497639559</v>
-      </c>
-      <c r="P22" s="42">
+        <v>3.153492949763956</v>
+      </c>
+      <c r="P22" s="42" t="n">
         <f>Financials!M60</f>
         <v>3.274096263903536</v>
       </c>
@@ -19342,45 +19351,45 @@
         <v>69</v>
       </c>
       <c r="F24" s="50"/>
-      <c r="G24" s="40">
+      <c r="G24" s="40" t="n">
         <f>Financials!D12</f>
         <v>1907.865966796875</v>
       </c>
-      <c r="H24" s="40">
+      <c r="H24" s="40" t="n">
         <f>Financials!E12</f>
         <v>1869.748046875</v>
       </c>
-      <c r="I24" s="40">
+      <c r="I24" s="40" t="n">
         <f>Financials!F12</f>
-        <v>1863</v>
-      </c>
-      <c r="J24" s="40">
+        <v>1863.0</v>
+      </c>
+      <c r="J24" s="40" t="n">
         <f>Financials!G12</f>
-        <v>1865</v>
-      </c>
-      <c r="K24" s="40">
+        <v>1865.0</v>
+      </c>
+      <c r="K24" s="40" t="n">
         <f>Financials!H12</f>
-        <v>2051</v>
-      </c>
-      <c r="L24" s="40">
+        <v>2051.0</v>
+      </c>
+      <c r="L24" s="40" t="n">
         <f>Financials!I12</f>
-        <v>2292</v>
-      </c>
-      <c r="M24" s="40">
+        <v>2292.0</v>
+      </c>
+      <c r="M24" s="40" t="n">
         <f>Financials!J12</f>
-        <v>2291</v>
-      </c>
-      <c r="N24" s="40">
+        <v>2291.0</v>
+      </c>
+      <c r="N24" s="40" t="n">
         <f>Financials!K12</f>
-        <v>2295</v>
-      </c>
-      <c r="O24" s="40">
+        <v>2295.0</v>
+      </c>
+      <c r="O24" s="40" t="n">
         <f>Financials!L12</f>
-        <v>2297</v>
-      </c>
-      <c r="P24" s="40">
+        <v>2297.0</v>
+      </c>
+      <c r="P24" s="40" t="n">
         <f>Financials!M12</f>
-        <v>2267</v>
+        <v>2267.0</v>
       </c>
       <c r="Q24" s="44"/>
       <c r="R24" s="44"/>
@@ -19420,49 +19429,49 @@
         <v>J</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26" s="57">
+        <v>163</v>
+      </c>
+      <c r="F26" s="57" t="n">
         <f>AVERAGEIF(L26:P26,"&lt;100")</f>
-        <v>9.5540002584457397</v>
-      </c>
-      <c r="G26" s="44">
+        <v>9.55400025844574</v>
+      </c>
+      <c r="G26" s="44" t="n">
         <f>Financials!D81</f>
         <v>15.819999694824219</v>
       </c>
-      <c r="H26" s="44">
+      <c r="H26" s="44" t="n">
         <f>Financials!E81</f>
         <v>18.079999923706055</v>
       </c>
-      <c r="I26" s="44">
+      <c r="I26" s="44" t="n">
         <f>Financials!F81</f>
         <v>17.290000915527344</v>
       </c>
-      <c r="J26" s="44">
+      <c r="J26" s="44" t="n">
         <f>Financials!G81</f>
         <v>19.799999237060547</v>
       </c>
-      <c r="K26" s="44">
+      <c r="K26" s="44" t="n">
         <f>Financials!H81</f>
         <v>21.940000534057617</v>
       </c>
-      <c r="L26" s="44">
+      <c r="L26" s="44" t="n">
         <f>Financials!I81</f>
         <v>1.3799999952316284</v>
       </c>
-      <c r="M26" s="44">
+      <c r="M26" s="44" t="n">
         <f>Financials!J81</f>
-        <v>12.060000419616699</v>
-      </c>
-      <c r="N26" s="44">
+        <v>12.0600004196167</v>
+      </c>
+      <c r="N26" s="44" t="n">
         <f>Financials!K81</f>
-        <v>9.9300003051757813</v>
-      </c>
-      <c r="O26" s="44">
+        <v>9.930000305175781</v>
+      </c>
+      <c r="O26" s="44" t="n">
         <f>Financials!L81</f>
         <v>10.270000457763672</v>
       </c>
-      <c r="P26" s="44">
+      <c r="P26" s="44" t="n">
         <f>Financials!M81</f>
         <v>14.130000114440918</v>
       </c>
@@ -19502,51 +19511,51 @@
         <v>J</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="F28" s="57">
+        <v>164</v>
+      </c>
+      <c r="F28" s="57" t="n">
         <f>AVERAGEIF(L28:P28, "&lt;100")</f>
         <v>7.3620000839233395</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="44" t="n">
         <f>Financials!D82</f>
         <v>13.770000457763672</v>
       </c>
-      <c r="H28" s="44">
+      <c r="H28" s="44" t="n">
         <f>Financials!E82</f>
         <v>15.229999542236328</v>
       </c>
-      <c r="I28" s="44">
+      <c r="I28" s="44" t="n">
         <f>Financials!F82</f>
         <v>17.799999237060547</v>
       </c>
-      <c r="J28" s="44">
+      <c r="J28" s="44" t="n">
         <f>Financials!G82</f>
-        <v>19.340000152587891</v>
-      </c>
-      <c r="K28" s="44">
+        <v>19.34000015258789</v>
+      </c>
+      <c r="K28" s="44" t="n">
         <f>Financials!H82</f>
         <v>17.670000076293945</v>
       </c>
-      <c r="L28" s="44">
+      <c r="L28" s="44" t="n">
         <f>Financials!I82</f>
-        <v>7.5799999237060547</v>
-      </c>
-      <c r="M28" s="44">
+        <v>7.579999923706055</v>
+      </c>
+      <c r="M28" s="44" t="n">
         <f>Financials!J82</f>
-        <v>8.5100002288818359</v>
-      </c>
-      <c r="N28" s="44">
+        <v>8.510000228881836</v>
+      </c>
+      <c r="N28" s="44" t="n">
         <f>Financials!K82</f>
         <v>6.190000057220459</v>
       </c>
-      <c r="O28" s="44">
+      <c r="O28" s="44" t="n">
         <f>Financials!L82</f>
         <v>7.440000057220459</v>
       </c>
-      <c r="P28" s="44">
+      <c r="P28" s="44" t="n">
         <f>Financials!M82</f>
-        <v>7.0900001525878906</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="Q28" s="44"/>
       <c r="R28" s="44"/>
@@ -19582,9 +19591,9 @@
       <c r="E30" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="127">
+      <c r="F30" s="127" t="n">
         <f>Financials!$C$83</f>
-        <v>3.4500000476837158</v>
+        <v>3.450000047683716</v>
       </c>
       <c r="G30" s="38"/>
       <c r="H30" s="38"/>
@@ -19618,9 +19627,9 @@
       <c r="E32" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="52">
+      <c r="F32" s="52" t="n">
         <f>Financials!D63</f>
-        <v>-8.4822770548845794E-3</v>
+        <v>-0.00848227705488458</v>
       </c>
     </row>
     <row r="33" spans="2:17" ht="18.5">
@@ -19635,9 +19644,9 @@
       <c r="E33" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="52">
+      <c r="F33" s="52" t="n">
         <f>Financials!D64</f>
-        <v>6.8502360086984737E-2</v>
+        <v>0.06850236008698474</v>
       </c>
     </row>
     <row r="34" spans="2:17">
@@ -19659,9 +19668,9 @@
       <c r="E35" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="52">
+      <c r="F35" s="52" t="n">
         <f>Financials!D69</f>
-        <v>1.150839432360562E-2</v>
+        <v>0.01150839432360562</v>
       </c>
     </row>
     <row r="36" spans="2:17" ht="18.5">
@@ -19676,7 +19685,7 @@
       <c r="E36" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F36" s="52">
+      <c r="F36" s="52" t="n">
         <f>Financials!D70</f>
         <v>0.10605941637184735</v>
       </c>
@@ -19701,9 +19710,9 @@
       <c r="E38" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="52">
+      <c r="F38" s="52" t="n">
         <f>Financials!D65</f>
-        <v>3.2834039436966389E-3</v>
+        <v>0.003283403943696639</v>
       </c>
     </row>
     <row r="39" spans="2:17" ht="18.5">
@@ -19718,9 +19727,9 @@
       <c r="E39" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="52">
+      <c r="F39" s="52" t="n">
         <f>Financials!D66</f>
-        <v>2.2207668016311244E-2</v>
+        <v>0.022207668016311244</v>
       </c>
     </row>
     <row r="40" spans="2:17">
@@ -19742,9 +19751,9 @@
       <c r="E41" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="52">
+      <c r="F41" s="52" t="n">
         <f>Financials!D67</f>
-        <v>9.0985061897617125E-3</v>
+        <v>0.009098506189761713</v>
       </c>
     </row>
     <row r="42" spans="2:17" ht="18.5">
@@ -19759,9 +19768,9 @@
       <c r="E42" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="52">
+      <c r="F42" s="52" t="n">
         <f>Financials!D68</f>
-        <v>3.6595936390676931E-2</v>
+        <v>0.03659593639067693</v>
       </c>
     </row>
     <row r="43" spans="2:17">
@@ -19781,7 +19790,7 @@
       <c r="E44" s="101">
         <v>0.75</v>
       </c>
-      <c r="F44" s="103">
+      <c r="F44" s="103" t="n">
         <f>Financials!$D$73</f>
         <v>0.5242881537111308</v>
       </c>
@@ -19798,9 +19807,9 @@
       <c r="E45" s="101" t="s">
         <v>134</v>
       </c>
-      <c r="F45" s="103">
+      <c r="F45" s="103" t="n">
         <f>Financials!D71</f>
-        <v>9.2723723024747962E-3</v>
+        <v>0.009272372302474796</v>
       </c>
     </row>
     <row r="46" spans="2:17" ht="18.5">
@@ -19815,9 +19824,9 @@
       <c r="E46" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="103">
+      <c r="F46" s="103" t="n">
         <f>Financials!D72</f>
-        <v>6.7479076671869739E-2</v>
+        <v>0.06747907667186974</v>
       </c>
     </row>
     <row r="47" spans="2:17" ht="18.5">
@@ -19832,9 +19841,9 @@
       <c r="E47" s="101">
         <v>0.12</v>
       </c>
-      <c r="F47" s="102">
+      <c r="F47" s="102" t="n">
         <f>F45+F46</f>
-        <v>7.6751448974344536E-2</v>
+        <v>0.07675144897434454</v>
       </c>
     </row>
   </sheetData>
@@ -19862,7 +19871,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.1796875"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19880,9 +19889,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="61.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="61.453125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="32.6328125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.81640625"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="20" thickBot="1">
@@ -19910,7 +19919,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="P4" t="s">
+      <c r="P4" t="s" s="0">
         <v>2</v>
       </c>
     </row>
@@ -19918,55 +19927,55 @@
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="58">
-        <v>79.199996948242188</v>
+      <c r="C5" s="58" t="n">
+        <v>79.19999694824219</v>
       </c>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="59">
-        <v>17853000</v>
+      <c r="C6" s="59" t="n">
+        <v>1.7853E7</v>
       </c>
     </row>
     <row r="7" spans="2:16">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="59">
-        <v>59983000</v>
+      <c r="C7" s="59" t="n">
+        <v>5.9983E7</v>
       </c>
     </row>
     <row r="8" spans="2:16">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="59">
-        <v>1663000</v>
+      <c r="C8" s="59" t="n">
+        <v>1663000.0</v>
       </c>
     </row>
     <row r="9" spans="2:16">
       <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="59">
-        <v>2478000</v>
+      <c r="C9" s="59" t="n">
+        <v>2478000.0</v>
       </c>
     </row>
     <row r="10" spans="2:16">
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="59">
-        <v>9324000</v>
+      <c r="C10" s="59" t="n">
+        <v>9324000.0</v>
       </c>
     </row>
     <row r="11" spans="2:16">
       <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="60" t="n">
         <v>0.33000001311302185</v>
       </c>
       <c r="G11" s="33"/>
@@ -19992,7 +20001,7 @@
       <c r="C15" s="14">
         <v>0.12</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" t="s" s="0">
         <v>10</v>
       </c>
     </row>
@@ -20000,38 +20009,38 @@
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="11" t="n">
         <f>SUM(C6:C7)</f>
-        <v>77836000</v>
+        <v>7.7836E7</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="18" thickTop="1" thickBot="1">
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="12" t="n">
         <f>C8/C17</f>
-        <v>2.1365435017215686E-2</v>
+        <v>0.021365435017215686</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="18" thickTop="1" thickBot="1">
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="12" t="n">
         <f>C14+C11*(C15-C14)</f>
-        <v>6.1710001140832915E-2</v>
+        <v>0.061710001140832915</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="18" thickTop="1" thickBot="1">
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="12" t="n">
         <f>C8/C17</f>
-        <v>2.1365435017215686E-2</v>
-      </c>
-      <c r="K20" t="s">
+        <v>0.021365435017215686</v>
+      </c>
+      <c r="K20" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -20039,11 +20048,11 @@
       <c r="B21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="11" t="n">
         <f>C17+C5*1000000</f>
-        <v>157035996.94824219</v>
-      </c>
-      <c r="K21" t="s">
+        <v>1.570359969482422E8</v>
+      </c>
+      <c r="K21" t="s" s="0">
         <v>11</v>
       </c>
     </row>
@@ -20051,11 +20060,11 @@
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="12" t="n">
         <f>C5*1000000/C21</f>
-        <v>0.50434294357583487</v>
-      </c>
-      <c r="K22" t="s">
+        <v>0.5043429435758349</v>
+      </c>
+      <c r="K22" t="s" s="0">
         <v>12</v>
       </c>
     </row>
@@ -20063,7 +20072,7 @@
       <c r="B23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="12" t="n">
         <f>C17/C21</f>
         <v>0.49565705642416635</v>
       </c>
@@ -20079,9 +20088,9 @@
       <c r="B25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="17" t="n">
         <f>C23*C20*(1-C18)+C22*C19</f>
-        <v>4.1486673821312575E-2</v>
+        <v>0.041486673821312575</v>
       </c>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
@@ -20114,20 +20123,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:L74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="62.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="62.26953125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.90625"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.1796875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="9" max="12" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.81640625"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="20" thickBot="1">
@@ -20140,9 +20149,9 @@
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="20" t="n">
         <f>WACC!C25</f>
-        <v>4.1486673821312575E-2</v>
+        <v>0.041486673821312575</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -20157,50 +20166,50 @@
       <c r="B6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="65">
-        <v>4.999999888241291E-3</v>
+      <c r="C6" s="65" t="n">
+        <v>0.004999999888241291</v>
       </c>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="13" t="n">
         <f>AVERAGEIF(C28:L28, "&lt;0.5")</f>
-        <v>0.26439686745224578</v>
+        <v>0.2643968674522458</v>
       </c>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="13">
-        <f>AVERAGEIF(C29:L29,"&lt;1.5")</f>
-        <v>1.0795623403263233</v>
+      <c r="C8" s="13" t="n">
+        <f>AVERAGEIF(C29:L29,"&lt;2")</f>
+        <v>1.1303428321655047</v>
       </c>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="66">
-        <v>8.6499996185302734</v>
+      <c r="C9" s="66" t="n">
+        <v>8.649999618530273</v>
       </c>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="67">
-        <v>5.000000074505806E-2</v>
+      <c r="C10" s="67" t="n">
+        <v>0.03999999910593033</v>
       </c>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="59">
-        <v>2267000064</v>
+      <c r="C11" s="59" t="n">
+        <v>2.267000064E9</v>
       </c>
     </row>
     <row r="12" spans="2:12">
@@ -20250,43 +20259,43 @@
       <c r="B16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="21" t="n">
         <f>Financials!D3</f>
         <v>23878.83984375</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="21" t="n">
         <f>Financials!E3</f>
         <v>23025.599609375</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="21" t="n">
         <f>Financials!F3</f>
         <v>20035.359375</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="21" t="n">
         <f>Financials!G3</f>
         <v>19992.029296875</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="21" t="n">
         <f>Financials!H3</f>
         <v>26152.330078125</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="21" t="n">
         <f>Financials!I3</f>
         <v>32691.919921875</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="21" t="n">
         <f>Financials!J3</f>
         <v>33042.33984375</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="21" t="n">
         <f>Financials!K3</f>
         <v>33096.37890625</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="21" t="n">
         <f>Financials!L3</f>
         <v>35318.0703125</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="21" t="n">
         <f>Financials!M3</f>
         <v>34206.46875</v>
       </c>
@@ -20296,41 +20305,41 @@
         <v>27</v>
       </c>
       <c r="C17" s="22"/>
-      <c r="D17" s="20">
+      <c r="D17" s="20" t="n">
         <f t="shared" ref="D17:L17" si="0">(D16-C16)/C16</f>
-        <v>-3.573206403485827E-2</v>
-      </c>
-      <c r="E17" s="20">
+        <v>-0.03573206403485827</v>
+      </c>
+      <c r="E17" s="20" t="n">
         <f t="shared" si="0"/>
         <v>-0.12986590078451235</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>-2.1626803549661807E-3</v>
-      </c>
-      <c r="G17" s="20">
+        <v>-0.0021626803549661807</v>
+      </c>
+      <c r="G17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>0.30813784282583712</v>
-      </c>
-      <c r="H17" s="20">
+        <v>0.3081378428258371</v>
+      </c>
+      <c r="H17" s="20" t="n">
         <f t="shared" si="0"/>
         <v>0.25005763632587413</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>1.0718854160673662E-2</v>
-      </c>
-      <c r="J17" s="20">
+        <v>0.010718854160673662</v>
+      </c>
+      <c r="J17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>1.6354490255695846E-3</v>
-      </c>
-      <c r="K17" s="20">
+        <v>0.0016354490255695846</v>
+      </c>
+      <c r="K17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>6.7127929993285471E-2</v>
-      </c>
-      <c r="L17" s="20">
+        <v>0.06712792999328547</v>
+      </c>
+      <c r="L17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>-3.1474017483525275E-2</v>
+        <v>-0.031474017483525275</v>
       </c>
     </row>
     <row r="18" spans="2:12">
@@ -20350,43 +20359,43 @@
       <c r="B19" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="21" t="n">
         <f>Financials!D6</f>
         <v>6570.58984375</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="21" t="n">
         <f>Financials!E6</f>
-        <v>5592</v>
-      </c>
-      <c r="E19" s="21">
+        <v>5592.0</v>
+      </c>
+      <c r="E19" s="21" t="n">
         <f>Financials!F6</f>
         <v>6559.19482421875</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="21" t="n">
         <f>Financials!G6</f>
         <v>6299.43505859375</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="21" t="n">
         <f>Financials!H6</f>
         <v>48372.53125</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="21" t="n">
         <f>Financials!I6</f>
         <v>8051.51416015625</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="21" t="n">
         <f>Financials!J6</f>
         <v>7283.43798828125</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="21" t="n">
         <f>Financials!K6</f>
         <v>8217.599609375</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="21" t="n">
         <f>Financials!L6</f>
         <v>9352.0546875</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="21" t="n">
         <f>Financials!M6</f>
         <v>8184.56689453125</v>
       </c>
@@ -20396,39 +20405,39 @@
         <v>27</v>
       </c>
       <c r="C20" s="22"/>
-      <c r="D20" s="20">
+      <c r="D20" s="20" t="n">
         <f>(D19-C19)/C19</f>
         <v>-0.14893485471184034</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="20" t="n">
         <f t="shared" ref="E20:L20" si="1">(E19-D19)/D19</f>
-        <v>0.17296044782166489</v>
-      </c>
-      <c r="F20" s="20">
+        <v>0.1729604478216649</v>
+      </c>
+      <c r="F20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>-3.9602386052916085E-2</v>
-      </c>
-      <c r="G20" s="20">
+        <v>-0.039602386052916085</v>
+      </c>
+      <c r="G20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>6.6788681524718276</v>
-      </c>
-      <c r="H20" s="20">
+        <v>6.678868152471828</v>
+      </c>
+      <c r="H20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>-0.83355193635528013</v>
-      </c>
-      <c r="I20" s="20">
+        <v>-0.8335519363552801</v>
+      </c>
+      <c r="I20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>-9.539524573848536E-2</v>
-      </c>
-      <c r="J20" s="20">
+        <v>-0.09539524573848536</v>
+      </c>
+      <c r="J20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>0.12825833385233421</v>
-      </c>
-      <c r="K20" s="20">
+        <v>0.1282583338523342</v>
+      </c>
+      <c r="K20" s="20" t="n">
         <f t="shared" si="1"/>
         <v>0.13805188036063032</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="20" t="n">
         <f t="shared" si="1"/>
         <v>-0.12483757120552552</v>
       </c>
@@ -20437,43 +20446,43 @@
       <c r="B22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="25" t="n">
         <f>Financials!D20</f>
         <v>6313.97021484375</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="25" t="n">
         <f>Financials!E20</f>
         <v>5354.669921875</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="25" t="n">
         <f>Financials!F20</f>
         <v>6643.2900390625</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="25" t="n">
         <f>Financials!G20</f>
         <v>5579.77001953125</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="25" t="n">
         <f>Financials!H20</f>
         <v>5994.2099609375</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="25" t="n">
         <f>Financials!I20</f>
         <v>12780.7099609375</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="25" t="n">
         <f>Financials!J20</f>
         <v>10682.5400390625</v>
       </c>
-      <c r="J22" s="25">
+      <c r="J22" s="25" t="n">
         <f>Financials!K20</f>
         <v>11965.599609375</v>
       </c>
-      <c r="K22" s="25">
+      <c r="K22" s="25" t="n">
         <f>Financials!L20</f>
         <v>12679.7998046875</v>
       </c>
-      <c r="L22" s="25">
+      <c r="L22" s="25" t="n">
         <f>Financials!M20</f>
         <v>12247.7802734375</v>
       </c>
@@ -20483,41 +20492,41 @@
         <v>27</v>
       </c>
       <c r="C23" s="26"/>
-      <c r="D23" s="26">
+      <c r="D23" s="26" t="n">
         <f>(D22-C22)/C22</f>
-        <v>-0.15193297724362001</v>
-      </c>
-      <c r="E23" s="26">
+        <v>-0.15193297724362</v>
+      </c>
+      <c r="E23" s="26" t="n">
         <f t="shared" ref="E23:L23" si="2">(E22-D22)/D22</f>
         <v>0.24065351104522884</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="26" t="n">
         <f t="shared" si="2"/>
         <v>-0.16008935531607976</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>7.4275452206015224E-2</v>
-      </c>
-      <c r="H23" s="26">
+        <v>0.07427545220601522</v>
+      </c>
+      <c r="H23" s="26" t="n">
         <f t="shared" si="2"/>
         <v>1.1321758904385433</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="26" t="n">
         <f t="shared" si="2"/>
         <v>-0.16416693034172364</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J23" s="26" t="n">
         <f t="shared" si="2"/>
         <v>0.12010809841299704</v>
       </c>
-      <c r="K23" s="26">
+      <c r="K23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>5.9687789883335805E-2</v>
-      </c>
-      <c r="L23" s="26">
+        <v>0.059687789883335805</v>
+      </c>
+      <c r="L23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>-3.4071478880154715E-2</v>
+        <v>-0.034071478880154715</v>
       </c>
     </row>
     <row r="24" spans="2:12">
@@ -20537,43 +20546,43 @@
       <c r="B25" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="62">
+      <c r="C25" s="62" t="n">
         <f>Financials!D9</f>
         <v>8837.990234375</v>
       </c>
-      <c r="D25" s="62">
+      <c r="D25" s="62" t="n">
         <f>Financials!E9</f>
         <v>7605.97900390625</v>
       </c>
-      <c r="E25" s="62">
+      <c r="E25" s="62" t="n">
         <f>Financials!F9</f>
         <v>7621.81591796875</v>
       </c>
-      <c r="F25" s="62">
+      <c r="F25" s="62" t="n">
         <f>Financials!G9</f>
         <v>7131.5888671875</v>
       </c>
-      <c r="G25" s="62">
+      <c r="G25" s="62" t="n">
         <f>Financials!H9</f>
         <v>9508.767578125</v>
       </c>
-      <c r="H25" s="62">
+      <c r="H25" s="62" t="n">
         <f>Financials!I9</f>
         <v>13816.509765625</v>
       </c>
-      <c r="I25" s="62">
+      <c r="I25" s="62" t="n">
         <f>Financials!J9</f>
         <v>13443.2001953125</v>
       </c>
-      <c r="J25" s="62">
+      <c r="J25" s="62" t="n">
         <f>Financials!K9</f>
         <v>14653.009765625</v>
       </c>
-      <c r="K25" s="62">
+      <c r="K25" s="62" t="n">
         <f>Financials!L9</f>
         <v>15552.3798828125</v>
       </c>
-      <c r="L25" s="62">
+      <c r="L25" s="62" t="n">
         <f>Financials!M9</f>
         <v>14630.0498046875</v>
       </c>
@@ -20583,84 +20592,84 @@
         <v>27</v>
       </c>
       <c r="C26" s="63"/>
-      <c r="D26" s="63">
+      <c r="D26" s="63" t="n">
         <f>Financials!E10</f>
         <v>-0.139399478591512</v>
       </c>
-      <c r="E26" s="63">
+      <c r="E26" s="63" t="n">
         <f>Financials!F10</f>
-        <v>2.0821664185986495E-3</v>
-      </c>
-      <c r="F26" s="63">
+        <v>0.0020821664185986495</v>
+      </c>
+      <c r="F26" s="63" t="n">
         <f>Financials!G10</f>
-        <v>-6.4318930824020459E-2</v>
-      </c>
-      <c r="G26" s="63">
+        <v>-0.06431893082402046</v>
+      </c>
+      <c r="G26" s="63" t="n">
         <f>Financials!H10</f>
         <v>0.33333086850742605</v>
       </c>
-      <c r="H26" s="63">
+      <c r="H26" s="63" t="n">
         <f>Financials!I10</f>
-        <v>0.45302844475976017</v>
-      </c>
-      <c r="I26" s="63">
+        <v>0.4530284447597602</v>
+      </c>
+      <c r="I26" s="63" t="n">
         <f>Financials!J10</f>
-        <v>-2.7019093580441085E-2</v>
-      </c>
-      <c r="J26" s="63">
+        <v>-0.027019093580441085</v>
+      </c>
+      <c r="J26" s="63" t="n">
         <f>Financials!K10</f>
-        <v>8.9994164539359281E-2</v>
-      </c>
-      <c r="K26" s="63">
+        <v>0.08999416453935928</v>
+      </c>
+      <c r="K26" s="63" t="n">
         <f>Financials!L10</f>
-        <v>6.1377841929605707E-2</v>
-      </c>
-      <c r="L26" s="63">
+        <v>0.06137784192960571</v>
+      </c>
+      <c r="L26" s="63" t="n">
         <f>Financials!M10</f>
-        <v>-5.9304754968356993E-2</v>
+        <v>-0.05930475496835699</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="15" thickBot="1">
       <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="24" t="n">
         <f t="shared" ref="C28:L28" si="3">C19/C16</f>
         <v>0.27516369667640167</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.24286012502897802</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.32738094193624867</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.31509733029344994</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>1.8496451790527448</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.24628453083811624</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.22042742804302104</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.24829301213442323</v>
       </c>
-      <c r="K28" s="24">
+      <c r="K28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.26479517722093837</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.23926956489863485</v>
       </c>
@@ -20669,43 +20678,43 @@
       <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="24" t="n">
         <f t="shared" ref="C29:L29" si="4">C22/C19</f>
-        <v>0.96094420211750875</v>
-      </c>
-      <c r="D29" s="24">
+        <v>0.9609442021175088</v>
+      </c>
+      <c r="D29" s="24" t="n">
         <f t="shared" si="4"/>
-        <v>0.95755899890468521</v>
-      </c>
-      <c r="E29" s="24">
+        <v>0.9575589989046852</v>
+      </c>
+      <c r="E29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.0128209661547545</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="24" t="n">
         <f t="shared" si="4"/>
-        <v>0.88575720959600557</v>
-      </c>
-      <c r="G29" s="24">
+        <v>0.8857572095960056</v>
+      </c>
+      <c r="G29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>0.12391764098426211</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.5873672587181382</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.4666892278413388</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.456094258440642</v>
       </c>
-      <c r="K29" s="24">
+      <c r="K29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.355830374007049</v>
       </c>
-      <c r="L29" s="24">
+      <c r="L29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.496448184890663</v>
       </c>
@@ -20754,87 +20763,87 @@
       <c r="B36" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="21" t="n">
         <f>L16*(C37+1)</f>
         <v>36190.444007840815</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="21" t="n">
         <f>C36*(D37+1)</f>
         <v>37453.490447845084</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="21" t="n">
         <f>D36*(E37+1)</f>
         <v>38850.50571008437</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="21" t="n">
         <f t="shared" ref="F36:L36" si="5">E36*(F37+1)</f>
-        <v>39044.758234292887</v>
-      </c>
-      <c r="G36" s="21">
+        <v>39044.75823429289</v>
+      </c>
+      <c r="G36" s="21" t="n">
         <f t="shared" si="5"/>
         <v>39239.982021100725</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="21" t="n">
         <f t="shared" si="5"/>
         <v>39436.18192682074</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="21" t="n">
         <f t="shared" si="5"/>
         <v>39633.362832047416</v>
       </c>
-      <c r="J36" s="21">
+      <c r="J36" s="21" t="n">
         <f t="shared" si="5"/>
         <v>39831.529641778216</v>
       </c>
-      <c r="K36" s="21">
+      <c r="K36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>40030.687285535518</v>
-      </c>
-      <c r="L36" s="21">
+        <v>40030.68728553552</v>
+      </c>
+      <c r="L36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>40230.840717489351</v>
+        <v>40230.84071748935</v>
       </c>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="68">
-        <v>5.8000002056360245E-2</v>
-      </c>
-      <c r="D37" s="68">
-        <v>3.48999984562397E-2</v>
-      </c>
-      <c r="E37" s="68">
-        <v>3.7300001829862595E-2</v>
-      </c>
-      <c r="F37" s="27">
+      <c r="C37" s="68" t="n">
+        <v>0.058000002056360245</v>
+      </c>
+      <c r="D37" s="68" t="n">
+        <v>0.0348999984562397</v>
+      </c>
+      <c r="E37" s="68" t="n">
+        <v>0.037300001829862595</v>
+      </c>
+      <c r="F37" s="27" t="n">
         <f>C6</f>
-        <v>4.999999888241291E-3</v>
-      </c>
-      <c r="G37" s="27">
+        <v>0.004999999888241291</v>
+      </c>
+      <c r="G37" s="27" t="n">
         <f>C6</f>
-        <v>4.999999888241291E-3</v>
-      </c>
-      <c r="H37" s="27">
+        <v>0.004999999888241291</v>
+      </c>
+      <c r="H37" s="27" t="n">
         <f>C6</f>
-        <v>4.999999888241291E-3</v>
-      </c>
-      <c r="I37" s="27">
+        <v>0.004999999888241291</v>
+      </c>
+      <c r="I37" s="27" t="n">
         <f>C6</f>
-        <v>4.999999888241291E-3</v>
-      </c>
-      <c r="J37" s="27">
+        <v>0.004999999888241291</v>
+      </c>
+      <c r="J37" s="27" t="n">
         <f>C6</f>
-        <v>4.999999888241291E-3</v>
-      </c>
-      <c r="K37" s="27">
+        <v>0.004999999888241291</v>
+      </c>
+      <c r="K37" s="27" t="n">
         <f>C6</f>
-        <v>4.999999888241291E-3</v>
-      </c>
-      <c r="L37" s="27">
+        <v>0.004999999888241291</v>
+      </c>
+      <c r="L37" s="27" t="n">
         <f>C6</f>
-        <v>4.999999888241291E-3</v>
+        <v>0.004999999888241291</v>
       </c>
     </row>
     <row r="38" spans="2:12">
@@ -20854,88 +20863,88 @@
       <c r="B39" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="21" t="n">
         <f>C36*C7</f>
         <v>9568.640027379015</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="21" t="n">
         <f>D36*C7</f>
-        <v>9902.5855495628621</v>
-      </c>
-      <c r="E39" s="21">
+        <v>9902.585549562862</v>
+      </c>
+      <c r="E39" s="21" t="n">
         <f>E36*C7</f>
         <v>10271.952008681912</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="21" t="n">
         <f>F36*C7</f>
         <v>10323.31176757733</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="21" t="n">
         <f>G36*C7</f>
         <v>10374.928325261479</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H39" s="21" t="n">
         <f>H36*C7</f>
         <v>10426.802965728271</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I39" s="21" t="n">
         <f>I36*C7</f>
         <v>10478.93697939161</v>
       </c>
-      <c r="J39" s="21">
+      <c r="J39" s="21" t="n">
         <f>J36*C7</f>
         <v>10531.331663117438</v>
       </c>
-      <c r="K39" s="21">
+      <c r="K39" s="21" t="n">
         <f>K36*C7</f>
         <v>10583.98832025604</v>
       </c>
-      <c r="L39" s="21">
+      <c r="L39" s="21" t="n">
         <f>L36*C7</f>
         <v>10636.908260674467</v>
       </c>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="18"/>
-      <c r="C40" s="20">
+      <c r="C40" s="20" t="n">
         <f>(C39-L19)/L19</f>
-        <v>0.16910768165051929</v>
-      </c>
-      <c r="D40" s="20">
+        <v>0.1691076816505193</v>
+      </c>
+      <c r="D40" s="20" t="n">
         <f>(D39-C39)/C39</f>
-        <v>3.4899998456240304E-2</v>
-      </c>
-      <c r="E40" s="20">
+        <v>0.034899998456240304</v>
+      </c>
+      <c r="E40" s="20" t="n">
         <f t="shared" ref="E40:L40" si="6">(E39-D39)/D39</f>
-        <v>3.7300001829861019E-2</v>
-      </c>
-      <c r="F40" s="20">
+        <v>0.03730000182986102</v>
+      </c>
+      <c r="F40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>4.9999998882401904E-3</v>
-      </c>
-      <c r="G40" s="20">
+        <v>0.00499999988824019</v>
+      </c>
+      <c r="G40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>4.9999998882395563E-3</v>
-      </c>
-      <c r="H40" s="20">
+        <v>0.004999999888239556</v>
+      </c>
+      <c r="H40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>4.9999998882387653E-3</v>
-      </c>
-      <c r="I40" s="20">
+        <v>0.004999999888238765</v>
+      </c>
+      <c r="I40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>4.9999998882397029E-3</v>
-      </c>
-      <c r="J40" s="20">
+        <v>0.004999999888239703</v>
+      </c>
+      <c r="J40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>4.9999998882396274E-3</v>
-      </c>
-      <c r="K40" s="20">
+        <v>0.0049999998882396274</v>
+      </c>
+      <c r="K40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>4.9999998882395945E-3</v>
-      </c>
-      <c r="L40" s="20">
+        <v>0.0049999998882395945</v>
+      </c>
+      <c r="L40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>4.9999998882413162E-3</v>
+        <v>0.004999999888241316</v>
       </c>
     </row>
     <row r="41" spans="2:12">
@@ -20955,180 +20964,177 @@
       <c r="B42" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="21" t="n">
         <f>C39*C8</f>
-        <v>10329.943421697424</v>
-      </c>
-      <c r="D42" s="21">
+        <v>10815.843668519768</v>
+      </c>
+      <c r="D42" s="21" t="n">
         <f>D39*C8</f>
-        <v>10690.458431167714</v>
-      </c>
-      <c r="E42" s="21">
+        <v>11193.316595854038</v>
+      </c>
+      <c r="E42" s="21" t="n">
         <f>E39*C8</f>
-        <v>11089.212550212322</v>
-      </c>
-      <c r="F42" s="21">
+        <v>11610.827325361595</v>
+      </c>
+      <c r="F42" s="21" t="n">
         <f>F39*C8</f>
-        <v>11144.658611724055</v>
-      </c>
-      <c r="G42" s="21">
+        <v>11668.88146069076</v>
+      </c>
+      <c r="G42" s="21" t="n">
         <f>G39*C8</f>
-        <v>11200.381903537143</v>
-      </c>
-      <c r="H42" s="21">
+        <v>11727.225866690153</v>
+      </c>
+      <c r="H42" s="21" t="n">
         <f>H39*C8</f>
-        <v>11256.38381180306</v>
-      </c>
-      <c r="I42" s="21">
+        <v>11785.861994712961</v>
+      </c>
+      <c r="I42" s="21" t="n">
         <f>I39*C8</f>
-        <v>11312.665729604059</v>
-      </c>
-      <c r="J42" s="21">
+        <v>11844.791303369291</v>
+      </c>
+      <c r="J42" s="21" t="n">
         <f>J39*C8</f>
-        <v>11369.229056987771</v>
-      </c>
-      <c r="K42" s="21">
+        <v>11904.015258562327</v>
+      </c>
+      <c r="K42" s="21" t="n">
         <f>K39*C8</f>
-        <v>11426.075201002081</v>
-      </c>
-      <c r="L42" s="21">
+        <v>11963.53533352474</v>
+      </c>
+      <c r="L42" s="21" t="n">
         <f>L39*C8</f>
-        <v>11483.205575730128</v>
+        <v>12023.353008855416</v>
       </c>
     </row>
     <row r="43" spans="2:12">
       <c r="B43" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="20" t="n">
         <f>(C42-L22)/L22</f>
-        <v>-0.15658648415659485</v>
-      </c>
-      <c r="D43" s="20">
+        <v>-0.11691396913963727</v>
+      </c>
+      <c r="D43" s="20" t="n">
         <f>(D42-C42)/C42</f>
-        <v>3.4899998456240269E-2</v>
-      </c>
-      <c r="E43" s="20">
+        <v>0.03489999845623952</v>
+      </c>
+      <c r="E43" s="20" t="n">
         <f t="shared" ref="E43:L43" si="7">(E42-D42)/D42</f>
-        <v>3.730000182986095E-2</v>
-      </c>
-      <c r="F43" s="20">
+        <v>0.03730000182986013</v>
+      </c>
+      <c r="F43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>4.99999988824018E-3</v>
-      </c>
-      <c r="G43" s="20">
+        <v>0.004999999888238507</v>
+      </c>
+      <c r="G43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>4.9999998882395763E-3</v>
-      </c>
-      <c r="H43" s="20">
+        <v>0.004999999888244525</v>
+      </c>
+      <c r="H43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>4.9999998882386959E-3</v>
-      </c>
-      <c r="I43" s="20">
+        <v>0.004999999888239332</v>
+      </c>
+      <c r="I43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>4.9999998882397922E-3</v>
-      </c>
-      <c r="J43" s="20">
+        <v>0.0049999998882360236</v>
+      </c>
+      <c r="J43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>4.9999998882395797E-3</v>
-      </c>
-      <c r="K43" s="20">
+        <v>0.004999999888236916</v>
+      </c>
+      <c r="K43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>4.9999998882395919E-3</v>
-      </c>
-      <c r="L43" s="20">
+        <v>0.0049999998882395</v>
+      </c>
+      <c r="L43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>4.9999998882413067E-3</v>
+        <v>0.004999999888248134</v>
       </c>
     </row>
     <row r="45" spans="2:12">
       <c r="B45" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="21">
-        <f>L25*(1+C46)</f>
-        <v>15361.552305822141</v>
-      </c>
-      <c r="D45" s="21">
-        <f>C45*(1+D46)</f>
-        <v>16129.629932558482</v>
-      </c>
-      <c r="E45" s="21">
-        <f t="shared" ref="E45:L45" si="8">D45*(1+E46)</f>
-        <v>16936.111441203968</v>
-      </c>
-      <c r="F45" s="21">
+      <c r="C45" s="60" t="n">
+        <v>16225.0</v>
+      </c>
+      <c r="D45" s="60" t="n">
+        <v>16877.0</v>
+      </c>
+      <c r="E45" s="60" t="n">
+        <v>17418.0</v>
+      </c>
+      <c r="F45" s="21" t="n">
+        <f t="shared" ref="E45:L45" si="8">E45*(1+F46)</f>
+        <v>18114.719984427087</v>
+      </c>
+      <c r="G45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>17782.91702588262</v>
-      </c>
-      <c r="G45" s="21">
+        <v>18839.308767608356</v>
+      </c>
+      <c r="H45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>18672.06289042607</v>
-      </c>
-      <c r="H45" s="21">
+        <v>19592.881101469076</v>
+      </c>
+      <c r="I45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>19605.666048859213</v>
-      </c>
-      <c r="I45" s="21">
+        <v>20376.596328010455</v>
+      </c>
+      <c r="J45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>20585.949365909557</v>
-      </c>
-      <c r="J45" s="21">
+        <v>21191.660162912816</v>
+      </c>
+      <c r="K45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>21615.246849542847</v>
-      </c>
-      <c r="K45" s="21">
+        <v>22039.326550482485</v>
+      </c>
+      <c r="L45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>22696.009208124597</v>
-      </c>
-      <c r="L45" s="21">
-        <f t="shared" si="8"/>
-        <v>23830.809685440719</v>
+        <v>22920.8995927971</v>
       </c>
     </row>
     <row r="46" spans="2:12">
       <c r="B46" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="20" t="n">
         <f>C10</f>
-        <v>5.000000074505806E-2</v>
-      </c>
-      <c r="D46" s="20">
+        <v>0.03999999910593033</v>
+      </c>
+      <c r="D46" s="20" t="n">
         <f>C10</f>
-        <v>5.000000074505806E-2</v>
-      </c>
-      <c r="E46" s="20">
+        <v>0.03999999910593033</v>
+      </c>
+      <c r="E46" s="20" t="n">
         <f>C10</f>
-        <v>5.000000074505806E-2</v>
-      </c>
-      <c r="F46" s="20">
+        <v>0.03999999910593033</v>
+      </c>
+      <c r="F46" s="20" t="n">
         <f>C10</f>
-        <v>5.000000074505806E-2</v>
-      </c>
-      <c r="G46" s="20">
+        <v>0.03999999910593033</v>
+      </c>
+      <c r="G46" s="20" t="n">
         <f>C10</f>
-        <v>5.000000074505806E-2</v>
-      </c>
-      <c r="H46" s="20">
+        <v>0.03999999910593033</v>
+      </c>
+      <c r="H46" s="20" t="n">
         <f>C10</f>
-        <v>5.000000074505806E-2</v>
-      </c>
-      <c r="I46" s="20">
+        <v>0.03999999910593033</v>
+      </c>
+      <c r="I46" s="20" t="n">
         <f>C10</f>
-        <v>5.000000074505806E-2</v>
-      </c>
-      <c r="J46" s="20">
+        <v>0.03999999910593033</v>
+      </c>
+      <c r="J46" s="20" t="n">
         <f>C10</f>
-        <v>5.000000074505806E-2</v>
-      </c>
-      <c r="K46" s="20">
+        <v>0.03999999910593033</v>
+      </c>
+      <c r="K46" s="20" t="n">
         <f>C10</f>
-        <v>5.000000074505806E-2</v>
-      </c>
-      <c r="L46" s="20">
+        <v>0.03999999910593033</v>
+      </c>
+      <c r="L46" s="20" t="n">
         <f>C10</f>
-        <v>5.000000074505806E-2</v>
+        <v>0.03999999910593033</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="20" thickBot="1">
@@ -21178,43 +21184,43 @@
       <c r="B51" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="61">
+      <c r="C51" s="61" t="n">
         <f>POWER((1+C4),1)</f>
         <v>1.0414866738213127</v>
       </c>
-      <c r="D51" s="61">
+      <c r="D51" s="61" t="n">
         <f>POWER((1+C4),2)</f>
         <v>1.0846944917473813</v>
       </c>
-      <c r="E51" s="61">
+      <c r="E51" s="61" t="n">
         <f>POWER((1+C4),3)</f>
         <v>1.1296948583222794</v>
       </c>
-      <c r="F51" s="61">
+      <c r="F51" s="61" t="n">
         <f>POWER((1+C4),4)</f>
         <v>1.1765621404271098</v>
       </c>
-      <c r="G51" s="61">
+      <c r="G51" s="61" t="n">
         <f>POWER((1+C4),5)</f>
         <v>1.2253737901775148</v>
       </c>
-      <c r="H51" s="61">
+      <c r="H51" s="61" t="n">
         <f>POWER((1+C4),6)</f>
-        <v>1.2762104729197949</v>
-      </c>
-      <c r="I51" s="61">
+        <v>1.276210472919795</v>
+      </c>
+      <c r="I51" s="61" t="n">
         <f>POWER((1+C4),7)</f>
         <v>1.3291562005371618</v>
       </c>
-      <c r="J51" s="61">
+      <c r="J51" s="61" t="n">
         <f>POWER((1+C4),8)</f>
-        <v>1.3842984702864221</v>
-      </c>
-      <c r="K51" s="61">
+        <v>1.384298470286422</v>
+      </c>
+      <c r="K51" s="61" t="n">
         <f>POWER((1+C4),9)</f>
-        <v>1.4417284093945371</v>
-      </c>
-      <c r="L51" s="61">
+        <v>1.441728409394537</v>
+      </c>
+      <c r="L51" s="61" t="n">
         <f>POWER((1+C4),10)</f>
         <v>1.5015409256540082</v>
       </c>
@@ -21236,45 +21242,45 @@
       <c r="B53" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="21" t="n">
         <f t="shared" ref="C53:L53" si="9">C42/C51</f>
-        <v>9918.4595265111639</v>
-      </c>
-      <c r="D53" s="21">
+        <v>10385.004379206772</v>
+      </c>
+      <c r="D53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>9855.7322015584232</v>
-      </c>
-      <c r="E53" s="21">
+        <v>10319.326484107258</v>
+      </c>
+      <c r="E53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>9816.113146412843</v>
-      </c>
-      <c r="F53" s="21">
+        <v>10277.843826433755</v>
+      </c>
+      <c r="F53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>9472.2226976285128</v>
-      </c>
-      <c r="G53" s="21">
+        <v>9917.77744646349</v>
+      </c>
+      <c r="G53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>9140.3798525138936</v>
-      </c>
-      <c r="H53" s="21">
+        <v>9570.325365773795</v>
+      </c>
+      <c r="H53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>8820.1625442314344</v>
-      </c>
-      <c r="I53" s="21">
+        <v>9235.045664332001</v>
+      </c>
+      <c r="I53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>8511.1634923210586</v>
-      </c>
-      <c r="J53" s="21">
+        <v>8911.511904005258</v>
+      </c>
+      <c r="J53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>8212.989684685117</v>
-      </c>
-      <c r="K53" s="21">
+        <v>8599.312586178965</v>
+      </c>
+      <c r="K53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>7925.2618777211537</v>
-      </c>
-      <c r="L53" s="21">
+        <v>8298.050628376559</v>
+      </c>
+      <c r="L53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>7647.6141139666406</v>
+        <v>8007.342859215454</v>
       </c>
     </row>
     <row r="54" spans="2:12">
@@ -21294,7 +21300,7 @@
       <c r="B55" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="74">
+      <c r="C55" s="74" t="n">
         <f>POWER((1+C4),11)</f>
         <v>1.5638348642659679</v>
       </c>
@@ -21353,18 +21359,18 @@
       <c r="B59" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C59" s="25">
+      <c r="C59" s="25" t="n">
         <f>L53*(1+C5)/(C4-C5)</f>
-        <v>475463.06500480801</v>
+        <v>497827.9136017013</v>
       </c>
     </row>
     <row r="60" spans="2:12" ht="15" thickBot="1">
       <c r="B60" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="23">
+      <c r="C60" s="23" t="n">
         <f>C59/C55</f>
-        <v>304036.61912728916</v>
+        <v>318337.90445346705</v>
       </c>
     </row>
     <row r="61" spans="2:12" ht="15" thickTop="1"/>
@@ -21372,9 +21378,9 @@
       <c r="B62" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="71">
+      <c r="C62" s="71" t="n">
         <f>(SUM(C53:L53)+C59)</f>
-        <v>564783.16414235823</v>
+        <v>591349.4547457946</v>
       </c>
     </row>
     <row r="63" spans="2:12" ht="15" thickTop="1">
@@ -21384,9 +21390,9 @@
       <c r="B64" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="70">
+      <c r="C64" s="70" t="n">
         <f>C62/(C11/1000000)</f>
-        <v>249.13239885217678</v>
+        <v>260.85109750830384</v>
       </c>
       <c r="D64" s="29"/>
       <c r="E64" s="30"/>
@@ -21423,18 +21429,18 @@
       <c r="B69" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="25">
+      <c r="C69" s="25" t="n">
         <f>L45*C9</f>
-        <v>206136.49468832952</v>
+        <v>198265.77273406554</v>
       </c>
     </row>
     <row r="70" spans="2:12" ht="15" thickBot="1">
       <c r="B70" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C70" s="23">
+      <c r="C70" s="23" t="n">
         <f>C69/C55</f>
-        <v>131814.74553266593</v>
+        <v>126781.78320773506</v>
       </c>
     </row>
     <row r="71" spans="2:12" ht="15" thickTop="1">
@@ -21445,9 +21451,9 @@
       <c r="B72" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="72">
+      <c r="C72" s="72" t="n">
         <f>SUM(C53:L53)+C70</f>
-        <v>221134.84467021615</v>
+        <v>220303.32435182837</v>
       </c>
     </row>
     <row r="73" spans="2:12" ht="15" thickTop="1"/>
@@ -21455,9 +21461,9 @@
       <c r="B74" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="70">
+      <c r="C74" s="70" t="n">
         <f>C72/(C11/1000000)</f>
-        <v>97.545142667546116</v>
+        <v>97.17834941879737</v>
       </c>
     </row>
   </sheetData>
@@ -21481,7 +21487,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="29.90625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="29.90625"/>
   </cols>
   <sheetData>
     <row r="13" spans="2:3" ht="20" thickBot="1">
@@ -21495,7 +21501,7 @@
       <c r="B15" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="78">
+      <c r="C15" s="78" t="n">
         <v>4.309999942779541</v>
       </c>
     </row>
@@ -21503,7 +21509,7 @@
       <c r="B16" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0">
         <v>7</v>
       </c>
     </row>
@@ -21511,15 +21517,15 @@
       <c r="B17" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="78">
-        <v>10</v>
+      <c r="C17" s="78" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0">
         <v>4.42</v>
       </c>
       <c r="D18" s="77" t="s">
@@ -21533,9 +21539,9 @@
       <c r="B20" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="79">
+      <c r="C20" s="79" t="n">
         <f>(C15*(C16+C17)*4.4)/C18</f>
-        <v>72.938460570115382</v>
+        <v>72.93846057011538</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="15" thickTop="1"/>
@@ -21554,22 +21560,22 @@
   <dimension ref="B2:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.6328125"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.54296875"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="6.81640625"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="117">
+      <c r="C2" s="117" t="n">
         <v>2.630000114440918</v>
       </c>
     </row>
@@ -21646,7 +21652,7 @@
       <c r="O6" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P6" s="106">
+      <c r="P6" s="106" t="n">
         <f>C2</f>
         <v>2.630000114440918</v>
       </c>
@@ -21655,112 +21661,113 @@
       <c r="B7" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="90">
+      <c r="C7" s="90" t="n">
         <f>P6*(1+P7)</f>
         <v>2.6826001155540493</v>
       </c>
-      <c r="D7" s="90">
+      <c r="D7" s="90" t="n">
         <f>C7*(1+P7)</f>
         <v>2.7362521166659284</v>
       </c>
-      <c r="E7" s="90">
+      <c r="E7" s="90" t="n">
         <f>D7*(1+P7)</f>
-        <v>2.7909771577760618</v>
-      </c>
-      <c r="F7" s="90">
+        <v>2.790977157776062</v>
+      </c>
+      <c r="F7" s="90" t="n">
         <f>E7*(1+P7)</f>
         <v>2.8467966996839307</v>
       </c>
-      <c r="G7" s="90">
+      <c r="G7" s="90" t="n">
         <f>F7*(1+P7)</f>
         <v>2.903732632405005</v>
       </c>
-      <c r="H7" s="90">
+      <c r="H7" s="90" t="n">
         <f>G7*(1+P7)</f>
         <v>2.9618072837550544</v>
       </c>
-      <c r="I7" s="90">
+      <c r="I7" s="90" t="n">
         <f>H7*(1+P7)</f>
         <v>3.0210434281061342</v>
       </c>
-      <c r="J7" s="90">
+      <c r="J7" s="90" t="n">
         <f>I7*(1+P7)</f>
         <v>3.0814642953177556</v>
       </c>
-      <c r="K7" s="90">
+      <c r="K7" s="90" t="n">
         <f>J7*(1+P7)</f>
         <v>3.1430935798466084</v>
       </c>
-      <c r="L7" s="90">
+      <c r="L7" s="90" t="n">
         <f>K7*(1+P7)</f>
         <v>3.205955450038485</v>
       </c>
-      <c r="M7" s="159">
+      <c r="M7" s="159" t="n">
         <f>L7*(1+P7)/(P8-P7)</f>
-        <v>40.87593174166394</v>
+        <v>152.19081914521016</v>
       </c>
       <c r="N7" s="160"/>
       <c r="O7" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P7" s="104">
-        <v>1.9999999552965164E-2</v>
+      <c r="P7" s="104" t="n">
+        <v>0.019999999552965164</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15" thickBot="1">
       <c r="B8" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="90">
+      <c r="C8" s="90" t="n">
         <f>C7/(1+P8)</f>
-        <v>2.4387273777764085</v>
-      </c>
-      <c r="D8" s="90">
+        <v>2.5757411813166504</v>
+      </c>
+      <c r="D8" s="90" t="n">
         <f>D7/(1+P8)^2</f>
-        <v>2.2613653856743205</v>
-      </c>
-      <c r="E8" s="90">
+        <v>2.522601651878942</v>
+      </c>
+      <c r="E8" s="90" t="n">
         <f>E7/(1+P8)^3</f>
-        <v>2.0969024476153728</v>
-      </c>
-      <c r="F8" s="90">
+        <v>2.470558431965394</v>
+      </c>
+      <c r="F8" s="90" t="n">
         <f>F7/(1+P8)^4</f>
-        <v>1.9444004505730004</v>
-      </c>
-      <c r="G8" s="90">
+        <v>2.419588903864015</v>
+      </c>
+      <c r="G8" s="90" t="n">
         <f>G7/(1+P8)^5</f>
-        <v>1.8029895079229585</v>
-      </c>
-      <c r="H8" s="90">
+        <v>2.3696709164836713</v>
+      </c>
+      <c r="H8" s="90" t="n">
         <f>H7/(1+P8)^6</f>
-        <v>1.6718629975231183</v>
-      </c>
-      <c r="I8" s="90">
+        <v>2.3207827757273076</v>
+      </c>
+      <c r="I8" s="90" t="n">
         <f>I7/(1+P8)^7</f>
-        <v>1.5502729606601864</v>
-      </c>
-      <c r="J8" s="90">
+        <v>2.272903235063883</v>
+      </c>
+      <c r="J8" s="90" t="n">
         <f>J7/(1+P8)^8</f>
-        <v>1.4375258356185177</v>
-      </c>
-      <c r="K8" s="90">
+        <v>2.2260114862947047</v>
+      </c>
+      <c r="K8" s="90" t="n">
         <f>K7/(1+P8)^9</f>
-        <v>1.3329785015347937</v>
-      </c>
-      <c r="L8" s="90">
+        <v>2.1800871505102446</v>
+      </c>
+      <c r="L8" s="90" t="n">
         <f>L7/(1+P8)^10</f>
-        <v>1.2360346099723714</v>
-      </c>
-      <c r="M8" s="159">
+        <v>2.1351102692336585</v>
+      </c>
+      <c r="M8" s="159" t="n">
         <f>M7/POWER((1+P8),10)</f>
-        <v>15.759441182178113</v>
+        <v>101.35642428721808</v>
       </c>
       <c r="N8" s="160"/>
       <c r="O8" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P8" s="105">
-        <v>0.1</v>
+      <c r="P8" s="105" t="n">
+        <f>WACC!$C$25</f>
+        <v>0.041486673821312575</v>
       </c>
     </row>
     <row r="9" spans="2:16">
@@ -21771,9 +21778,9 @@
       <c r="B10" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="95">
+      <c r="C10" s="95" t="n">
         <f>SUM(C8:N8)*(1-P9)</f>
-        <v>33.532501257049162</v>
+        <v>124.849480289557</v>
       </c>
       <c r="D10" s="96"/>
       <c r="E10" s="96"/>
@@ -21866,7 +21873,7 @@
       <c r="O15" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P15" s="106">
+      <c r="P15" s="106" t="n">
         <f>C2</f>
         <v>2.630000114440918</v>
       </c>
@@ -21875,112 +21882,113 @@
       <c r="B16" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="90">
+      <c r="C16" s="90" t="n">
         <f>P15*(1+P16)</f>
         <v>2.708900116110601</v>
       </c>
-      <c r="D16" s="90">
+      <c r="D16" s="90" t="n">
         <f>C16*(1+P16)</f>
         <v>2.790167117777465</v>
       </c>
-      <c r="E16" s="90">
+      <c r="E16" s="90" t="n">
         <f>D16*(1+P16)</f>
-        <v>2.8738721294398371</v>
-      </c>
-      <c r="F16" s="90">
+        <v>2.873872129439837</v>
+      </c>
+      <c r="F16" s="90" t="n">
         <f>E16*(1+P16)</f>
-        <v>2.9600882913959601</v>
-      </c>
-      <c r="G16" s="90">
+        <v>2.96008829139596</v>
+      </c>
+      <c r="G16" s="90" t="n">
         <f>F16*(1+P16)</f>
         <v>3.0488909381529514</v>
       </c>
-      <c r="H16" s="90">
+      <c r="H16" s="90" t="n">
         <f>G16*(1+P16)</f>
-        <v>3.1403576642531048</v>
-      </c>
-      <c r="I16" s="90">
+        <v>3.140357664253105</v>
+      </c>
+      <c r="I16" s="90" t="n">
         <f>H16*(1+P16)</f>
-        <v>3.2345683920749262</v>
-      </c>
-      <c r="J16" s="90">
+        <v>3.234568392074926</v>
+      </c>
+      <c r="J16" s="90" t="n">
         <f>I16*(1+P16)</f>
-        <v>3.3316054416682381</v>
-      </c>
-      <c r="K16" s="90">
+        <v>3.331605441668238</v>
+      </c>
+      <c r="K16" s="90" t="n">
         <f>J16*(1+P16)</f>
         <v>3.431553602684279</v>
       </c>
-      <c r="L16" s="90">
+      <c r="L16" s="90" t="n">
         <f>K16*(1+P16)</f>
         <v>3.53450020846378</v>
       </c>
-      <c r="M16" s="159">
+      <c r="M16" s="159" t="n">
         <f>L16*(1+P16)/(P17-P16)</f>
-        <v>52.007645392482601</v>
+        <v>316.9355251535998</v>
       </c>
       <c r="N16" s="160"/>
       <c r="O16" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P16" s="104">
-        <v>2.9999999329447746E-2</v>
+      <c r="P16" s="104" t="n">
+        <v>0.029999999329447746</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15" thickBot="1">
       <c r="B17" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="90">
+      <c r="C17" s="90" t="n">
         <f>C16/(1+P17)</f>
-        <v>2.4626364691914553</v>
-      </c>
-      <c r="D17" s="90">
+        <v>2.6009935452859874</v>
+      </c>
+      <c r="D17" s="90" t="n">
         <f>D16/(1+P17)^2</f>
-        <v>2.3059232378326153</v>
-      </c>
-      <c r="E17" s="90">
+        <v>2.572306892867744</v>
+      </c>
+      <c r="E17" s="90" t="n">
         <f>E16/(1+P17)^3</f>
-        <v>2.159182666746684</v>
-      </c>
-      <c r="F17" s="90">
+        <v>2.543936628788285</v>
+      </c>
+      <c r="F17" s="90" t="n">
         <f>F16/(1+P17)^4</f>
-        <v>2.0217801320920423</v>
-      </c>
-      <c r="G17" s="90">
+        <v>2.515879263564781</v>
+      </c>
+      <c r="G17" s="90" t="n">
         <f>G16/(1+P17)^5</f>
-        <v>1.8931213951809989</v>
-      </c>
-      <c r="H17" s="90">
+        <v>2.4881313462003147</v>
+      </c>
+      <c r="H17" s="90" t="n">
         <f>H16/(1+P17)^6</f>
-        <v>1.7726500325154502</v>
-      </c>
-      <c r="I17" s="90">
+        <v>2.460689463759378</v>
+      </c>
+      <c r="I17" s="90" t="n">
         <f>I16/(1+P17)^7</f>
-        <v>1.659845029365691</v>
-      </c>
-      <c r="J17" s="90">
+        <v>2.4335502409481475</v>
+      </c>
+      <c r="J17" s="90" t="n">
         <f>J16/(1+P17)^8</f>
-        <v>1.5542185264851407</v>
-      </c>
-      <c r="K17" s="90">
+        <v>2.4067103396992917</v>
+      </c>
+      <c r="K17" s="90" t="n">
         <f>K16/(1+P17)^9</f>
-        <v>1.4553137102159222</v>
-      </c>
-      <c r="L17" s="90">
+        <v>2.3801664587613804</v>
+      </c>
+      <c r="L17" s="90" t="n">
         <f>L16/(1+P17)^10</f>
-        <v>1.3627028368604905</v>
-      </c>
-      <c r="M17" s="159">
+        <v>2.3539153332928944</v>
+      </c>
+      <c r="M17" s="159" t="n">
         <f>M16/POWER((1+P17),10)</f>
-        <v>20.05119868010236</v>
+        <v>211.07351770352568</v>
       </c>
       <c r="N17" s="160"/>
       <c r="O17" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P17" s="105">
-        <v>0.1</v>
+      <c r="P17" s="105" t="n">
+        <f>WACC!$C$25</f>
+        <v>0.041486673821312575</v>
       </c>
     </row>
     <row r="18" spans="2:16">
@@ -21991,9 +21999,9 @@
       <c r="B19" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="95">
+      <c r="C19" s="95" t="n">
         <f>SUM(C17:N17)*(1-P18)</f>
-        <v>38.698572716588849</v>
+        <v>235.829797216694</v>
       </c>
       <c r="D19" s="96"/>
       <c r="E19" s="96"/>
@@ -22080,7 +22088,7 @@
       <c r="O24" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P24" s="106">
+      <c r="P24" s="106" t="n">
         <f>C2</f>
         <v>2.630000114440918</v>
       </c>
@@ -22089,112 +22097,113 @@
       <c r="B25" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="90">
+      <c r="C25" s="90" t="n">
         <f>P24*(1+P25)</f>
         <v>2.7352001166671527</v>
       </c>
-      <c r="D25" s="90">
+      <c r="D25" s="90" t="n">
         <f>C25*(1+P25)</f>
         <v>2.8446081188883756</v>
       </c>
-      <c r="E25" s="90">
+      <c r="E25" s="90" t="n">
         <f>D25*(1+P25)</f>
         <v>2.9583924411006364</v>
       </c>
-      <c r="F25" s="90">
+      <c r="F25" s="90" t="n">
         <f>E25*(1+P25)</f>
         <v>3.0767281360996557</v>
       </c>
-      <c r="G25" s="90">
+      <c r="G25" s="90" t="n">
         <f>F25*(1+P25)</f>
         <v>3.1997972587928363</v>
       </c>
-      <c r="H25" s="90">
+      <c r="H25" s="90" t="n">
         <f>G25*(1+P25)</f>
         <v>3.327789146283711</v>
       </c>
-      <c r="I25" s="90">
+      <c r="I25" s="90" t="n">
         <f>H25*(1+P25)</f>
-        <v>3.4609007091597821</v>
-      </c>
-      <c r="J25" s="90">
+        <v>3.460900709159782</v>
+      </c>
+      <c r="J25" s="90" t="n">
         <f>I25*(1+P25)</f>
-        <v>3.5993367344318838</v>
-      </c>
-      <c r="K25" s="90">
+        <v>3.599336734431884</v>
+      </c>
+      <c r="K25" s="90" t="n">
         <f>J25*(1+P25)</f>
         <v>3.7433102005910963</v>
       </c>
-      <c r="L25" s="90">
+      <c r="L25" s="90" t="n">
         <f>K25*(1+P25)</f>
         <v>3.8930426052679628</v>
       </c>
-      <c r="M25" s="159">
+      <c r="M25" s="159" t="n">
         <f>L25*(1+P25)/(P26-P25)</f>
-        <v>67.479404094445684</v>
+        <v>2723.3693181880894</v>
       </c>
       <c r="N25" s="160"/>
       <c r="O25" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P25" s="104">
-        <v>3.9999999105930328E-2</v>
+      <c r="P25" s="104" t="n">
+        <v>0.03999999910593033</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="15" thickBot="1">
       <c r="B26" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="90">
+      <c r="C26" s="90" t="n">
         <f>C25/(1+P26)</f>
-        <v>2.4865455606065021</v>
-      </c>
-      <c r="D26" s="90">
+        <v>2.6262459092553248</v>
+      </c>
+      <c r="D26" s="90" t="n">
         <f>D25/(1+P26)^2</f>
-        <v>2.3509158007341941</v>
-      </c>
-      <c r="E26" s="90">
+        <v>2.622497063026365</v>
+      </c>
+      <c r="E26" s="90" t="n">
         <f>E25/(1+P26)^3</f>
-        <v>2.2226840278742563</v>
-      </c>
-      <c r="F26" s="90">
+        <v>2.6187535681043776</v>
+      </c>
+      <c r="F26" s="90" t="n">
         <f>F25/(1+P26)^4</f>
-        <v>2.1014467154563587</v>
-      </c>
-      <c r="G26" s="90">
+        <v>2.6150154168506226</v>
+      </c>
+      <c r="G26" s="90" t="n">
         <f>G25/(1+P26)^5</f>
-        <v>1.9868223474507052</v>
-      </c>
-      <c r="H26" s="90">
+        <v>2.6112826016372614</v>
+      </c>
+      <c r="H26" s="90" t="n">
         <f>H25/(1+P26)^6</f>
-        <v>1.8784502177930704</v>
-      </c>
-      <c r="I26" s="90">
+        <v>2.6075551148473157</v>
+      </c>
+      <c r="I26" s="90" t="n">
         <f>I25/(1+P26)^7</f>
-        <v>1.7759892952957512</v>
-      </c>
-      <c r="J26" s="90">
+        <v>2.603832948874711</v>
+      </c>
+      <c r="J26" s="90" t="n">
         <f>J25/(1+P26)^8</f>
-        <v>1.6791171504724742</v>
-      </c>
-      <c r="K26" s="90">
+        <v>2.6001160961242373</v>
+      </c>
+      <c r="K26" s="90" t="n">
         <f>K25/(1+P26)^9</f>
-        <v>1.5875289409001119</v>
-      </c>
-      <c r="L26" s="90">
+        <v>2.5964045490115013</v>
+      </c>
+      <c r="L26" s="90" t="n">
         <f>L25/(1+P26)^10</f>
-        <v>1.5009364519243233</v>
-      </c>
-      <c r="M26" s="159">
+        <v>2.5926982999629593</v>
+      </c>
+      <c r="M26" s="159" t="n">
         <f>M25/POWER((1+P26),10)</f>
-        <v>26.016231423317183</v>
+        <v>1813.71634409625</v>
       </c>
       <c r="N26" s="160"/>
       <c r="O26" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P26" s="105">
-        <v>0.1</v>
+      <c r="P26" s="105" t="n">
+        <f>WACC!$C$25</f>
+        <v>0.041486673821312575</v>
       </c>
     </row>
     <row r="27" spans="2:16">
@@ -22205,9 +22214,9 @@
       <c r="B28" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="95">
+      <c r="C28" s="95" t="n">
         <f>SUM(C26:N26)*(1-P27)</f>
-        <v>45.586667931824934</v>
+        <v>1839.81074566394</v>
       </c>
       <c r="D28" s="96"/>
       <c r="E28" s="96"/>
@@ -22250,12 +22259,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="62.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="110" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" style="110" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="11.26953125" style="110" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.6328125" style="110" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="62.26953125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="110" width="10.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="110" width="13.26953125"/>
+    <col min="5" max="11" bestFit="true" customWidth="true" style="110" width="11.26953125"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" style="110" width="11.6328125"/>
+    <col min="19" max="19" customWidth="true" width="11.7265625"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="17.5" thickBot="1">
@@ -22298,37 +22307,37 @@
       <c r="B3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="120">
+      <c r="C3" s="120" t="n">
         <v>24077.66015625</v>
       </c>
-      <c r="D3" s="110">
+      <c r="D3" s="110" t="n">
         <v>23878.83984375</v>
       </c>
-      <c r="E3" s="110">
+      <c r="E3" s="110" t="n">
         <v>23025.599609375</v>
       </c>
-      <c r="F3" s="110">
+      <c r="F3" s="110" t="n">
         <v>20035.359375</v>
       </c>
-      <c r="G3" s="110">
+      <c r="G3" s="110" t="n">
         <v>19992.029296875</v>
       </c>
-      <c r="H3" s="110">
+      <c r="H3" s="110" t="n">
         <v>26152.330078125</v>
       </c>
-      <c r="I3" s="110">
+      <c r="I3" s="110" t="n">
         <v>32691.919921875</v>
       </c>
-      <c r="J3" s="110">
+      <c r="J3" s="110" t="n">
         <v>33042.33984375</v>
       </c>
-      <c r="K3" s="110">
+      <c r="K3" s="110" t="n">
         <v>33096.37890625</v>
       </c>
-      <c r="L3" s="110">
+      <c r="L3" s="110" t="n">
         <v>35318.0703125</v>
       </c>
-      <c r="M3" s="110">
+      <c r="M3" s="110" t="n">
         <v>34206.46875</v>
       </c>
       <c r="Q3" s="107"/>
@@ -22338,45 +22347,45 @@
         <v>27</v>
       </c>
       <c r="C4" s="113"/>
-      <c r="D4" s="121">
+      <c r="D4" s="121" t="n">
         <f t="shared" ref="D4:M4" si="0">(D3-C3)/C3</f>
-        <v>-8.2574598698449894E-3</v>
-      </c>
-      <c r="E4" s="121">
+        <v>-0.00825745986984499</v>
+      </c>
+      <c r="E4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>-3.573206403485827E-2</v>
-      </c>
-      <c r="F4" s="121">
+        <v>-0.03573206403485827</v>
+      </c>
+      <c r="F4" s="121" t="n">
         <f t="shared" si="0"/>
         <v>-0.12986590078451235</v>
       </c>
-      <c r="G4" s="121">
+      <c r="G4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>-2.1626803549661807E-3</v>
-      </c>
-      <c r="H4" s="121">
+        <v>-0.0021626803549661807</v>
+      </c>
+      <c r="H4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>0.30813784282583712</v>
-      </c>
-      <c r="I4" s="121">
+        <v>0.3081378428258371</v>
+      </c>
+      <c r="I4" s="121" t="n">
         <f t="shared" si="0"/>
         <v>0.25005763632587413</v>
       </c>
-      <c r="J4" s="121">
+      <c r="J4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>1.0718854160673662E-2</v>
-      </c>
-      <c r="K4" s="121">
+        <v>0.010718854160673662</v>
+      </c>
+      <c r="K4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>1.6354490255695846E-3</v>
-      </c>
-      <c r="L4" s="121">
+        <v>0.0016354490255695846</v>
+      </c>
+      <c r="L4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>6.7127929993285471E-2</v>
-      </c>
-      <c r="M4" s="121">
+        <v>0.06712792999328547</v>
+      </c>
+      <c r="M4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>-3.1474017483525275E-2</v>
+        <v>-0.031474017483525275</v>
       </c>
       <c r="Q4" s="107"/>
     </row>
@@ -22399,37 +22408,37 @@
       <c r="B6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="110">
+      <c r="C6" s="110" t="n">
         <v>6533.77978515625</v>
       </c>
-      <c r="D6" s="110">
+      <c r="D6" s="110" t="n">
         <v>6570.58984375</v>
       </c>
-      <c r="E6" s="110">
-        <v>5592</v>
-      </c>
-      <c r="F6" s="110">
+      <c r="E6" s="110" t="n">
+        <v>5592.0</v>
+      </c>
+      <c r="F6" s="110" t="n">
         <v>6559.19482421875</v>
       </c>
-      <c r="G6" s="110">
+      <c r="G6" s="110" t="n">
         <v>6299.43505859375</v>
       </c>
-      <c r="H6" s="110">
+      <c r="H6" s="110" t="n">
         <v>48372.53125</v>
       </c>
-      <c r="I6" s="110">
+      <c r="I6" s="110" t="n">
         <v>8051.51416015625</v>
       </c>
-      <c r="J6" s="110">
+      <c r="J6" s="110" t="n">
         <v>7283.43798828125</v>
       </c>
-      <c r="K6" s="110">
+      <c r="K6" s="110" t="n">
         <v>8217.599609375</v>
       </c>
-      <c r="L6" s="110">
+      <c r="L6" s="110" t="n">
         <v>9352.0546875</v>
       </c>
-      <c r="M6" s="110">
+      <c r="M6" s="110" t="n">
         <v>8184.56689453125</v>
       </c>
       <c r="Q6" s="107"/>
@@ -22439,43 +22448,43 @@
         <v>27</v>
       </c>
       <c r="C7" s="113"/>
-      <c r="D7" s="121">
+      <c r="D7" s="121" t="n">
         <f t="shared" ref="D7" si="1">(D6-C6)/C6</f>
-        <v>5.6338076586812478E-3</v>
-      </c>
-      <c r="E7" s="121">
+        <v>0.005633807658681248</v>
+      </c>
+      <c r="E7" s="121" t="n">
         <f t="shared" ref="E7" si="2">(E6-D6)/D6</f>
         <v>-0.14893485471184034</v>
       </c>
-      <c r="F7" s="121">
+      <c r="F7" s="121" t="n">
         <f t="shared" ref="F7" si="3">(F6-E6)/E6</f>
-        <v>0.17296044782166489</v>
-      </c>
-      <c r="G7" s="121">
+        <v>0.1729604478216649</v>
+      </c>
+      <c r="G7" s="121" t="n">
         <f t="shared" ref="G7" si="4">(G6-F6)/F6</f>
-        <v>-3.9602386052916085E-2</v>
-      </c>
-      <c r="H7" s="121">
+        <v>-0.039602386052916085</v>
+      </c>
+      <c r="H7" s="121" t="n">
         <f t="shared" ref="H7" si="5">(H6-G6)/G6</f>
-        <v>6.6788681524718276</v>
-      </c>
-      <c r="I7" s="121">
+        <v>6.678868152471828</v>
+      </c>
+      <c r="I7" s="121" t="n">
         <f t="shared" ref="I7" si="6">(I6-H6)/H6</f>
-        <v>-0.83355193635528013</v>
-      </c>
-      <c r="J7" s="121">
+        <v>-0.8335519363552801</v>
+      </c>
+      <c r="J7" s="121" t="n">
         <f t="shared" ref="J7" si="7">(J6-I6)/I6</f>
-        <v>-9.539524573848536E-2</v>
-      </c>
-      <c r="K7" s="121">
+        <v>-0.09539524573848536</v>
+      </c>
+      <c r="K7" s="121" t="n">
         <f t="shared" ref="K7" si="8">(K6-J6)/J6</f>
-        <v>0.12825833385233421</v>
-      </c>
-      <c r="L7" s="121">
+        <v>0.1282583338523342</v>
+      </c>
+      <c r="L7" s="121" t="n">
         <f t="shared" ref="L7" si="9">(L6-K6)/K6</f>
         <v>0.13805188036063032</v>
       </c>
-      <c r="M7" s="121">
+      <c r="M7" s="121" t="n">
         <f t="shared" ref="M7" si="10">(M6-L6)/L6</f>
         <v>-0.12483757120552552</v>
       </c>
@@ -22498,37 +22507,37 @@
       <c r="B9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="110">
+      <c r="C9" s="110" t="n">
         <v>9331.490234375</v>
       </c>
-      <c r="D9" s="110">
+      <c r="D9" s="110" t="n">
         <v>8837.990234375</v>
       </c>
-      <c r="E9" s="110">
+      <c r="E9" s="110" t="n">
         <v>7605.97900390625</v>
       </c>
-      <c r="F9" s="110">
+      <c r="F9" s="110" t="n">
         <v>7621.81591796875</v>
       </c>
-      <c r="G9" s="110">
+      <c r="G9" s="110" t="n">
         <v>7131.5888671875</v>
       </c>
-      <c r="H9" s="110">
+      <c r="H9" s="110" t="n">
         <v>9508.767578125</v>
       </c>
-      <c r="I9" s="110">
+      <c r="I9" s="110" t="n">
         <v>13816.509765625</v>
       </c>
-      <c r="J9" s="110">
+      <c r="J9" s="110" t="n">
         <v>13443.2001953125</v>
       </c>
-      <c r="K9" s="110">
+      <c r="K9" s="110" t="n">
         <v>14653.009765625</v>
       </c>
-      <c r="L9" s="110">
+      <c r="L9" s="110" t="n">
         <v>15552.3798828125</v>
       </c>
-      <c r="M9" s="110">
+      <c r="M9" s="110" t="n">
         <v>14630.0498046875</v>
       </c>
       <c r="Q9" s="107"/>
@@ -22538,45 +22547,45 @@
         <v>27</v>
       </c>
       <c r="C10" s="113"/>
-      <c r="D10" s="121">
+      <c r="D10" s="121" t="n">
         <f t="shared" ref="D10" si="11">(D9-C9)/C9</f>
-        <v>-5.288544354706206E-2</v>
-      </c>
-      <c r="E10" s="121">
+        <v>-0.05288544354706206</v>
+      </c>
+      <c r="E10" s="121" t="n">
         <f t="shared" ref="E10" si="12">(E9-D9)/D9</f>
         <v>-0.139399478591512</v>
       </c>
-      <c r="F10" s="121">
+      <c r="F10" s="121" t="n">
         <f t="shared" ref="F10" si="13">(F9-E9)/E9</f>
-        <v>2.0821664185986495E-3</v>
-      </c>
-      <c r="G10" s="121">
+        <v>0.0020821664185986495</v>
+      </c>
+      <c r="G10" s="121" t="n">
         <f t="shared" ref="G10" si="14">(G9-F9)/F9</f>
-        <v>-6.4318930824020459E-2</v>
-      </c>
-      <c r="H10" s="121">
+        <v>-0.06431893082402046</v>
+      </c>
+      <c r="H10" s="121" t="n">
         <f t="shared" ref="H10" si="15">(H9-G9)/G9</f>
         <v>0.33333086850742605</v>
       </c>
-      <c r="I10" s="121">
+      <c r="I10" s="121" t="n">
         <f t="shared" ref="I10" si="16">(I9-H9)/H9</f>
-        <v>0.45302844475976017</v>
-      </c>
-      <c r="J10" s="121">
+        <v>0.4530284447597602</v>
+      </c>
+      <c r="J10" s="121" t="n">
         <f t="shared" ref="J10" si="17">(J9-I9)/I9</f>
-        <v>-2.7019093580441085E-2</v>
-      </c>
-      <c r="K10" s="121">
+        <v>-0.027019093580441085</v>
+      </c>
+      <c r="K10" s="121" t="n">
         <f t="shared" ref="K10" si="18">(K9-J9)/J9</f>
-        <v>8.9994164539359281E-2</v>
-      </c>
-      <c r="L10" s="121">
+        <v>0.08999416453935928</v>
+      </c>
+      <c r="L10" s="121" t="n">
         <f t="shared" ref="L10" si="19">(L9-K9)/K9</f>
-        <v>6.1377841929605707E-2</v>
-      </c>
-      <c r="M10" s="121">
+        <v>0.06137784192960571</v>
+      </c>
+      <c r="M10" s="121" t="n">
         <f t="shared" ref="M10" si="20">(M9-L9)/L9</f>
-        <v>-5.9304754968356993E-2</v>
+        <v>-0.05930475496835699</v>
       </c>
       <c r="Q10" s="107"/>
     </row>
@@ -22589,38 +22598,38 @@
       <c r="B12" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="110">
-        <v>1949</v>
-      </c>
-      <c r="D12" s="110">
+      <c r="C12" s="110" t="n">
+        <v>1949.0</v>
+      </c>
+      <c r="D12" s="110" t="n">
         <v>1907.865966796875</v>
       </c>
-      <c r="E12" s="110">
+      <c r="E12" s="110" t="n">
         <v>1869.748046875</v>
       </c>
-      <c r="F12" s="110">
-        <v>1863</v>
-      </c>
-      <c r="G12" s="110">
-        <v>1865</v>
-      </c>
-      <c r="H12" s="110">
-        <v>2051</v>
-      </c>
-      <c r="I12" s="110">
-        <v>2292</v>
-      </c>
-      <c r="J12" s="110">
-        <v>2291</v>
-      </c>
-      <c r="K12" s="110">
-        <v>2295</v>
-      </c>
-      <c r="L12" s="110">
-        <v>2297</v>
-      </c>
-      <c r="M12" s="110">
-        <v>2267</v>
+      <c r="F12" s="110" t="n">
+        <v>1863.0</v>
+      </c>
+      <c r="G12" s="110" t="n">
+        <v>1865.0</v>
+      </c>
+      <c r="H12" s="110" t="n">
+        <v>2051.0</v>
+      </c>
+      <c r="I12" s="110" t="n">
+        <v>2292.0</v>
+      </c>
+      <c r="J12" s="110" t="n">
+        <v>2291.0</v>
+      </c>
+      <c r="K12" s="110" t="n">
+        <v>2295.0</v>
+      </c>
+      <c r="L12" s="110" t="n">
+        <v>2297.0</v>
+      </c>
+      <c r="M12" s="110" t="n">
+        <v>2267.0</v>
       </c>
       <c r="Q12" s="107"/>
     </row>
@@ -22629,45 +22638,45 @@
         <v>27</v>
       </c>
       <c r="C13" s="113"/>
-      <c r="D13" s="121">
+      <c r="D13" s="121" t="n">
         <f t="shared" ref="D13" si="21">(D12-C12)/C12</f>
-        <v>-2.1105199180669575E-2</v>
-      </c>
-      <c r="E13" s="121">
+        <v>-0.021105199180669575</v>
+      </c>
+      <c r="E13" s="121" t="n">
         <f t="shared" ref="E13" si="22">(E12-D12)/D12</f>
-        <v>-1.9979348961222498E-2</v>
-      </c>
-      <c r="F13" s="121">
+        <v>-0.0199793489612225</v>
+      </c>
+      <c r="F13" s="121" t="n">
         <f t="shared" ref="F13" si="23">(F12-E12)/E12</f>
-        <v>-3.6090674817274636E-3</v>
-      </c>
-      <c r="G13" s="121">
+        <v>-0.0036090674817274636</v>
+      </c>
+      <c r="G13" s="121" t="n">
         <f t="shared" ref="G13" si="24">(G12-F12)/F12</f>
-        <v>1.0735373054213634E-3</v>
-      </c>
-      <c r="H13" s="121">
+        <v>0.0010735373054213634</v>
+      </c>
+      <c r="H13" s="121" t="n">
         <f t="shared" ref="H13" si="25">(H12-G12)/G12</f>
-        <v>9.9731903485254694E-2</v>
-      </c>
-      <c r="I13" s="121">
+        <v>0.0997319034852547</v>
+      </c>
+      <c r="I13" s="121" t="n">
         <f t="shared" ref="I13" si="26">(I12-H12)/H12</f>
         <v>0.11750365675280351</v>
       </c>
-      <c r="J13" s="121">
+      <c r="J13" s="121" t="n">
         <f t="shared" ref="J13" si="27">(J12-I12)/I12</f>
-        <v>-4.3630017452006982E-4</v>
-      </c>
-      <c r="K13" s="121">
+        <v>-4.363001745200698E-4</v>
+      </c>
+      <c r="K13" s="121" t="n">
         <f t="shared" ref="K13" si="28">(K12-J12)/J12</f>
-        <v>1.7459624618070711E-3</v>
-      </c>
-      <c r="L13" s="121">
+        <v>0.001745962461807071</v>
+      </c>
+      <c r="L13" s="121" t="n">
         <f t="shared" ref="L13" si="29">(L12-K12)/K12</f>
-        <v>8.7145969498910673E-4</v>
-      </c>
-      <c r="M13" s="121">
+        <v>8.714596949891067E-4</v>
+      </c>
+      <c r="M13" s="121" t="n">
         <f t="shared" ref="M13" si="30">(M12-L12)/L12</f>
-        <v>-1.3060513713539399E-2</v>
+        <v>-0.013060513713539399</v>
       </c>
       <c r="Q13" s="107"/>
     </row>
@@ -22680,37 +22689,37 @@
       <c r="B15" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="110">
+      <c r="C15" s="110" t="n">
         <v>3.125</v>
       </c>
-      <c r="D15" s="110">
+      <c r="D15" s="110" t="n">
         <v>3.4100000858306885</v>
       </c>
-      <c r="E15" s="110">
+      <c r="E15" s="110" t="n">
         <v>2.5799999237060547</v>
       </c>
-      <c r="F15" s="110">
+      <c r="F15" s="110" t="n">
         <v>3.5199999809265137</v>
       </c>
-      <c r="G15" s="110">
+      <c r="G15" s="110" t="n">
         <v>3.377000093460083</v>
       </c>
-      <c r="H15" s="110">
+      <c r="H15" s="110" t="n">
         <v>23.584999084472656</v>
       </c>
-      <c r="I15" s="110">
+      <c r="I15" s="110" t="n">
         <v>3.513200044631958</v>
       </c>
-      <c r="J15" s="110">
-        <v>3.1795001029968262</v>
-      </c>
-      <c r="K15" s="110">
+      <c r="J15" s="110" t="n">
+        <v>3.179500102996826</v>
+      </c>
+      <c r="K15" s="110" t="n">
         <v>3.5810999870300293</v>
       </c>
-      <c r="L15" s="110">
-        <v>4.0784997940063477</v>
-      </c>
-      <c r="M15" s="110">
+      <c r="L15" s="110" t="n">
+        <v>4.078499794006348</v>
+      </c>
+      <c r="M15" s="110" t="n">
         <v>3.6105000972747803</v>
       </c>
       <c r="Q15" s="107"/>
@@ -22719,43 +22728,43 @@
       <c r="B16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="121">
+      <c r="D16" s="121" t="n">
         <f t="shared" ref="D16" si="31">(D15-C15)/C15</f>
-        <v>9.1200027465820163E-2</v>
-      </c>
-      <c r="E16" s="121">
+        <v>0.09120002746582016</v>
+      </c>
+      <c r="E16" s="121" t="n">
         <f t="shared" ref="E16" si="32">(E15-D15)/D15</f>
         <v>-0.24340180094817873</v>
       </c>
-      <c r="F16" s="121">
+      <c r="F16" s="121" t="n">
         <f t="shared" ref="F16" si="33">(F15-E15)/E15</f>
         <v>0.36434111822383025</v>
       </c>
-      <c r="G16" s="121">
+      <c r="G16" s="121" t="n">
         <f t="shared" ref="G16" si="34">(G15-F15)/F15</f>
-        <v>-4.0624968250366739E-2</v>
-      </c>
-      <c r="H16" s="121">
+        <v>-0.04062496825036674</v>
+      </c>
+      <c r="H16" s="121" t="n">
         <f t="shared" ref="H16" si="35">(H15-G15)/G15</f>
-        <v>5.9840090114736864</v>
-      </c>
-      <c r="I16" s="121">
+        <v>5.984009011473686</v>
+      </c>
+      <c r="I16" s="121" t="n">
         <f t="shared" ref="I16" si="36">(I15-H15)/H15</f>
-        <v>-0.85104090816162326</v>
-      </c>
-      <c r="J16" s="121">
+        <v>-0.8510409081616233</v>
+      </c>
+      <c r="J16" s="121" t="n">
         <f t="shared" ref="J16" si="37">(J15-I15)/I15</f>
-        <v>-9.4984611577986627E-2</v>
-      </c>
-      <c r="K16" s="121">
+        <v>-0.09498461157798663</v>
+      </c>
+      <c r="K16" s="121" t="n">
         <f t="shared" ref="K16" si="38">(K15-J15)/J15</f>
         <v>0.12630912754324997</v>
       </c>
-      <c r="L16" s="121">
+      <c r="L16" s="121" t="n">
         <f t="shared" ref="L16" si="39">(L15-K15)/K15</f>
         <v>0.13889581658646577</v>
       </c>
-      <c r="M16" s="121">
+      <c r="M16" s="121" t="n">
         <f t="shared" ref="M16" si="40">(M15-L15)/L15</f>
         <v>-0.11474800058083277</v>
       </c>
@@ -22805,37 +22814,37 @@
       <c r="B20" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="110">
+      <c r="C20" s="110" t="n">
         <v>6053.490234375</v>
       </c>
-      <c r="D20" s="128">
+      <c r="D20" s="128" t="n">
         <v>6313.97021484375</v>
       </c>
-      <c r="E20" s="128">
+      <c r="E20" s="128" t="n">
         <v>5354.669921875</v>
       </c>
-      <c r="F20" s="128">
+      <c r="F20" s="128" t="n">
         <v>6643.2900390625</v>
       </c>
-      <c r="G20" s="128">
+      <c r="G20" s="128" t="n">
         <v>5579.77001953125</v>
       </c>
-      <c r="H20" s="128">
+      <c r="H20" s="128" t="n">
         <v>5994.2099609375</v>
       </c>
-      <c r="I20" s="128">
+      <c r="I20" s="128" t="n">
         <v>12780.7099609375</v>
       </c>
-      <c r="J20" s="128">
+      <c r="J20" s="128" t="n">
         <v>10682.5400390625</v>
       </c>
-      <c r="K20" s="128">
+      <c r="K20" s="128" t="n">
         <v>11965.599609375</v>
       </c>
-      <c r="L20" s="128">
+      <c r="L20" s="128" t="n">
         <v>12679.7998046875</v>
       </c>
-      <c r="M20" s="128">
+      <c r="M20" s="128" t="n">
         <v>12247.7802734375</v>
       </c>
       <c r="O20" s="107"/>
@@ -22865,42 +22874,43 @@
       <c r="B21" s="31" t="s">
         <v>27</v>
       </c>
+      <c r="C21" s="110"/>
       <c r="D21" s="129"/>
-      <c r="E21" s="131">
+      <c r="E21" s="131" t="n">
         <f t="shared" ref="E21" si="41">(E20-D20)/D20</f>
-        <v>-0.15193297724362001</v>
-      </c>
-      <c r="F21" s="131">
+        <v>-0.15193297724362</v>
+      </c>
+      <c r="F21" s="131" t="n">
         <f t="shared" ref="F21" si="42">(F20-E20)/E20</f>
         <v>0.24065351104522884</v>
       </c>
-      <c r="G21" s="131">
+      <c r="G21" s="131" t="n">
         <f t="shared" ref="G21" si="43">(G20-F20)/F20</f>
         <v>-0.16008935531607976</v>
       </c>
-      <c r="H21" s="131">
+      <c r="H21" s="131" t="n">
         <f t="shared" ref="H21" si="44">(H20-G20)/G20</f>
-        <v>7.4275452206015224E-2</v>
-      </c>
-      <c r="I21" s="131">
+        <v>0.07427545220601522</v>
+      </c>
+      <c r="I21" s="131" t="n">
         <f t="shared" ref="I21" si="45">(I20-H20)/H20</f>
         <v>1.1321758904385433</v>
       </c>
-      <c r="J21" s="131">
+      <c r="J21" s="131" t="n">
         <f t="shared" ref="J21" si="46">(J20-I20)/I20</f>
         <v>-0.16416693034172364</v>
       </c>
-      <c r="K21" s="131">
+      <c r="K21" s="131" t="n">
         <f t="shared" ref="K21" si="47">(K20-J20)/J20</f>
         <v>0.12010809841299704</v>
       </c>
-      <c r="L21" s="131">
+      <c r="L21" s="131" t="n">
         <f t="shared" ref="L21" si="48">(L20-K20)/K20</f>
-        <v>5.9687789883335805E-2</v>
-      </c>
-      <c r="M21" s="131">
+        <v>0.059687789883335805</v>
+      </c>
+      <c r="M21" s="131" t="n">
         <f t="shared" ref="M21" si="49">(M20-L20)/L20</f>
-        <v>-3.4071478880154715E-2</v>
+        <v>-0.034071478880154715</v>
       </c>
       <c r="O21" s="107"/>
       <c r="P21" s="107"/>
@@ -22963,38 +22973,38 @@
       <c r="B23" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="113">
-        <v>4434</v>
-      </c>
-      <c r="D23" s="130">
-        <v>4500</v>
-      </c>
-      <c r="E23" s="130">
-        <v>4880</v>
-      </c>
-      <c r="F23" s="130">
-        <v>4594</v>
-      </c>
-      <c r="G23" s="130">
-        <v>4143</v>
-      </c>
-      <c r="H23" s="130">
-        <v>4681</v>
-      </c>
-      <c r="I23" s="130">
-        <v>5992</v>
-      </c>
-      <c r="J23" s="130">
-        <v>6072</v>
-      </c>
-      <c r="K23" s="130">
-        <v>6267</v>
-      </c>
-      <c r="L23" s="130">
-        <v>6950</v>
-      </c>
-      <c r="M23" s="130">
-        <v>6275</v>
+      <c r="C23" s="113" t="n">
+        <v>4434.0</v>
+      </c>
+      <c r="D23" s="130" t="n">
+        <v>4500.0</v>
+      </c>
+      <c r="E23" s="130" t="n">
+        <v>4880.0</v>
+      </c>
+      <c r="F23" s="130" t="n">
+        <v>4594.0</v>
+      </c>
+      <c r="G23" s="130" t="n">
+        <v>4143.0</v>
+      </c>
+      <c r="H23" s="130" t="n">
+        <v>4681.0</v>
+      </c>
+      <c r="I23" s="130" t="n">
+        <v>5992.0</v>
+      </c>
+      <c r="J23" s="130" t="n">
+        <v>6072.0</v>
+      </c>
+      <c r="K23" s="130" t="n">
+        <v>6267.0</v>
+      </c>
+      <c r="L23" s="130" t="n">
+        <v>6950.0</v>
+      </c>
+      <c r="M23" s="130" t="n">
+        <v>6275.0</v>
       </c>
       <c r="O23" s="107"/>
       <c r="P23" s="107"/>
@@ -23020,45 +23030,45 @@
       <c r="AJ23" s="107"/>
     </row>
     <row r="24" spans="2:36">
-      <c r="D24" s="121">
+      <c r="D24" s="121" t="n">
         <f t="shared" ref="D24" si="50">(D23-C23)/C23</f>
-        <v>1.4884979702300407E-2</v>
-      </c>
-      <c r="E24" s="121">
+        <v>0.014884979702300407</v>
+      </c>
+      <c r="E24" s="121" t="n">
         <f t="shared" ref="E24" si="51">(E23-D23)/D23</f>
-        <v>8.4444444444444447E-2</v>
-      </c>
-      <c r="F24" s="121">
+        <v>0.08444444444444445</v>
+      </c>
+      <c r="F24" s="121" t="n">
         <f t="shared" ref="F24" si="52">(F23-E23)/E23</f>
-        <v>-5.860655737704918E-2</v>
-      </c>
-      <c r="G24" s="121">
+        <v>-0.05860655737704918</v>
+      </c>
+      <c r="G24" s="121" t="n">
         <f t="shared" ref="G24" si="53">(G23-F23)/F23</f>
-        <v>-9.8171528080104487E-2</v>
-      </c>
-      <c r="H24" s="121">
+        <v>-0.09817152808010449</v>
+      </c>
+      <c r="H24" s="121" t="n">
         <f t="shared" ref="H24" si="54">(H23-G23)/G23</f>
         <v>0.12985759111754766</v>
       </c>
-      <c r="I24" s="121">
+      <c r="I24" s="121" t="n">
         <f t="shared" ref="I24" si="55">(I23-H23)/H23</f>
-        <v>0.28006836146122621</v>
-      </c>
-      <c r="J24" s="121">
+        <v>0.2800683614612262</v>
+      </c>
+      <c r="J24" s="121" t="n">
         <f t="shared" ref="J24" si="56">(J23-I23)/I23</f>
-        <v>1.335113484646195E-2</v>
-      </c>
-      <c r="K24" s="121">
+        <v>0.01335113484646195</v>
+      </c>
+      <c r="K24" s="121" t="n">
         <f t="shared" ref="K24" si="57">(K23-J23)/J23</f>
-        <v>3.2114624505928856E-2</v>
-      </c>
-      <c r="L24" s="121">
+        <v>0.032114624505928856</v>
+      </c>
+      <c r="L24" s="121" t="n">
         <f t="shared" ref="L24" si="58">(L23-K23)/K23</f>
         <v>0.10898356470400511</v>
       </c>
-      <c r="M24" s="121">
+      <c r="M24" s="121" t="n">
         <f t="shared" ref="M24" si="59">(M23-L23)/L23</f>
-        <v>-9.7122302158273388E-2</v>
+        <v>-0.09712230215827339</v>
       </c>
       <c r="O24" s="107"/>
       <c r="P24" s="107"/>
@@ -23195,37 +23205,37 @@
       <c r="B28" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="110">
+      <c r="C28" s="110" t="n">
         <v>14560.7197265625</v>
       </c>
-      <c r="D28" s="110">
+      <c r="D28" s="110" t="n">
         <v>14893.759765625</v>
       </c>
-      <c r="E28" s="110">
+      <c r="E28" s="110" t="n">
         <v>15050.4404296875</v>
       </c>
-      <c r="F28" s="110">
+      <c r="F28" s="110" t="n">
         <v>15005.1201171875</v>
       </c>
-      <c r="G28" s="110">
+      <c r="G28" s="110" t="n">
         <v>16750.150390625</v>
       </c>
-      <c r="H28" s="110">
+      <c r="H28" s="110" t="n">
         <v>17999.380859375</v>
       </c>
-      <c r="I28" s="110">
+      <c r="I28" s="110" t="n">
         <v>16891.890625</v>
       </c>
-      <c r="J28" s="110">
+      <c r="J28" s="110" t="n">
         <v>16949.5703125</v>
       </c>
-      <c r="K28" s="110">
+      <c r="K28" s="110" t="n">
         <v>17477.810546875</v>
       </c>
-      <c r="L28" s="110">
+      <c r="L28" s="110" t="n">
         <v>17610.91015625</v>
       </c>
-      <c r="M28" s="110">
+      <c r="M28" s="110" t="n">
         <v>19059.390625</v>
       </c>
       <c r="O28" s="107"/>
@@ -23256,45 +23266,45 @@
         <v>27</v>
       </c>
       <c r="C29" s="113"/>
-      <c r="D29" s="121">
+      <c r="D29" s="121" t="n">
         <f t="shared" ref="D29" si="60">(D28-C28)/C28</f>
-        <v>2.2872498428422414E-2</v>
-      </c>
-      <c r="E29" s="121">
+        <v>0.022872498428422414</v>
+      </c>
+      <c r="E29" s="121" t="n">
         <f t="shared" ref="E29" si="61">(E28-D28)/D28</f>
-        <v>1.051988661883221E-2</v>
-      </c>
-      <c r="F29" s="121">
+        <v>0.01051988661883221</v>
+      </c>
+      <c r="F29" s="121" t="n">
         <f t="shared" ref="F29" si="62">(F28-E28)/E28</f>
-        <v>-3.011228323299042E-3</v>
-      </c>
-      <c r="G29" s="121">
+        <v>-0.003011228323299042</v>
+      </c>
+      <c r="G29" s="121" t="n">
         <f t="shared" ref="G29" si="63">(G28-F28)/F28</f>
         <v>0.11629565507034285</v>
       </c>
-      <c r="H29" s="121">
+      <c r="H29" s="121" t="n">
         <f t="shared" ref="H29" si="64">(H28-G28)/G28</f>
-        <v>7.4580253885313766E-2</v>
-      </c>
-      <c r="I29" s="121">
+        <v>0.07458025388531377</v>
+      </c>
+      <c r="I29" s="121" t="n">
         <f t="shared" ref="I29" si="65">(I28-H28)/H28</f>
-        <v>-6.1529351649790905E-2</v>
-      </c>
-      <c r="J29" s="121">
+        <v>-0.061529351649790905</v>
+      </c>
+      <c r="J29" s="121" t="n">
         <f t="shared" ref="J29" si="66">(J28-I28)/I28</f>
-        <v>3.4146377560978318E-3</v>
-      </c>
-      <c r="K29" s="121">
+        <v>0.003414637756097832</v>
+      </c>
+      <c r="K29" s="121" t="n">
         <f t="shared" ref="K29" si="67">(K28-J28)/J28</f>
-        <v>3.1165405649571685E-2</v>
-      </c>
-      <c r="L29" s="121">
+        <v>0.031165405649571685</v>
+      </c>
+      <c r="L29" s="121" t="n">
         <f t="shared" ref="L29" si="68">(L28-K28)/K28</f>
-        <v>7.6153479875543089E-3</v>
-      </c>
-      <c r="M29" s="121">
+        <v>0.007615347987554309</v>
+      </c>
+      <c r="M29" s="121" t="n">
         <f t="shared" ref="M29" si="69">(M28-L28)/L28</f>
-        <v>8.2249040844487156E-2</v>
+        <v>0.08224904084448716</v>
       </c>
       <c r="O29" s="107"/>
       <c r="P29" s="107"/>
@@ -23347,37 +23357,37 @@
       <c r="B31" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="110">
+      <c r="C31" s="110" t="n">
         <v>28755.279296875</v>
       </c>
-      <c r="D31" s="110">
+      <c r="D31" s="110" t="n">
         <v>27169.599609375</v>
       </c>
-      <c r="E31" s="110">
+      <c r="E31" s="110" t="n">
         <v>28075.349609375</v>
       </c>
-      <c r="F31" s="110">
+      <c r="F31" s="110" t="n">
         <v>33179.75</v>
       </c>
-      <c r="G31" s="110">
+      <c r="G31" s="110" t="n">
         <v>37154.19921875</v>
       </c>
-      <c r="H31" s="110">
+      <c r="H31" s="110" t="n">
         <v>163770.40625</v>
       </c>
-      <c r="I31" s="110">
+      <c r="I31" s="110" t="n">
         <v>178445.40625</v>
       </c>
-      <c r="J31" s="110">
+      <c r="J31" s="110" t="n">
         <v>163099.703125</v>
       </c>
-      <c r="K31" s="110">
+      <c r="K31" s="110" t="n">
         <v>159316.09375</v>
       </c>
-      <c r="L31" s="110">
+      <c r="L31" s="110" t="n">
         <v>171279.703125</v>
       </c>
-      <c r="M31" s="110">
+      <c r="M31" s="110" t="n">
         <v>170861.703125</v>
       </c>
       <c r="O31" s="107"/>
@@ -23408,45 +23418,45 @@
         <v>27</v>
       </c>
       <c r="C32" s="113"/>
-      <c r="D32" s="121">
+      <c r="D32" s="121" t="n">
         <f t="shared" ref="D32" si="70">(D31-C31)/C31</f>
-        <v>-5.5143950129266345E-2</v>
-      </c>
-      <c r="E32" s="121">
+        <v>-0.055143950129266345</v>
+      </c>
+      <c r="E32" s="121" t="n">
         <f t="shared" ref="E32" si="71">(E31-D31)/D31</f>
-        <v>3.3336891710670134E-2</v>
-      </c>
-      <c r="F32" s="121">
+        <v>0.033336891710670134</v>
+      </c>
+      <c r="F32" s="121" t="n">
         <f t="shared" ref="F32" si="72">(F31-E31)/E31</f>
-        <v>0.18181075077050951</v>
-      </c>
-      <c r="G32" s="121">
+        <v>0.1818107507705095</v>
+      </c>
+      <c r="G32" s="121" t="n">
         <f t="shared" ref="G32" si="73">(G31-F31)/F31</f>
         <v>0.1197853877364959</v>
       </c>
-      <c r="H32" s="121">
+      <c r="H32" s="121" t="n">
         <f t="shared" ref="H32" si="74">(H31-G31)/G31</f>
         <v>3.407857246115876</v>
       </c>
-      <c r="I32" s="121">
+      <c r="I32" s="121" t="n">
         <f t="shared" ref="I32" si="75">(I31-H31)/H31</f>
-        <v>8.9607153917651103E-2</v>
-      </c>
-      <c r="J32" s="121">
+        <v>0.0896071539176511</v>
+      </c>
+      <c r="J32" s="121" t="n">
         <f t="shared" ref="J32" si="76">(J31-I31)/I31</f>
-        <v>-8.5996627469921205E-2</v>
-      </c>
-      <c r="K32" s="121">
+        <v>-0.0859966274699212</v>
+      </c>
+      <c r="K32" s="121" t="n">
         <f t="shared" ref="K32" si="77">(K31-J31)/J31</f>
-        <v>-2.3198137718866557E-2</v>
-      </c>
-      <c r="L32" s="121">
+        <v>-0.023198137718866557</v>
+      </c>
+      <c r="L32" s="121" t="n">
         <f t="shared" ref="L32" si="78">(L31-K31)/K31</f>
-        <v>7.5093539474884341E-2</v>
-      </c>
-      <c r="M32" s="121">
+        <v>0.07509353947488434</v>
+      </c>
+      <c r="M32" s="121" t="n">
         <f t="shared" ref="M32" si="79">(M31-L31)/L31</f>
-        <v>-2.4404526185740957E-3</v>
+        <v>-0.0024404526185740957</v>
       </c>
       <c r="O32" s="107"/>
       <c r="P32" s="107"/>
@@ -23500,43 +23510,43 @@
         <v>50</v>
       </c>
       <c r="C34" s="111"/>
-      <c r="D34" s="111">
+      <c r="D34" s="111" t="n">
         <f>D28+D31</f>
         <v>42063.359375</v>
       </c>
-      <c r="E34" s="111">
+      <c r="E34" s="111" t="n">
         <f t="shared" ref="E34:M34" si="80">E28+E31</f>
         <v>43125.7900390625</v>
       </c>
-      <c r="F34" s="111">
+      <c r="F34" s="111" t="n">
         <f t="shared" si="80"/>
         <v>48184.8701171875</v>
       </c>
-      <c r="G34" s="111">
+      <c r="G34" s="111" t="n">
         <f t="shared" si="80"/>
         <v>53904.349609375</v>
       </c>
-      <c r="H34" s="111">
+      <c r="H34" s="111" t="n">
         <f t="shared" si="80"/>
         <v>181769.787109375</v>
       </c>
-      <c r="I34" s="111">
+      <c r="I34" s="111" t="n">
         <f t="shared" si="80"/>
         <v>195337.296875</v>
       </c>
-      <c r="J34" s="111">
+      <c r="J34" s="111" t="n">
         <f t="shared" si="80"/>
         <v>180049.2734375</v>
       </c>
-      <c r="K34" s="111">
+      <c r="K34" s="111" t="n">
         <f t="shared" si="80"/>
         <v>176793.904296875</v>
       </c>
-      <c r="L34" s="111">
+      <c r="L34" s="111" t="n">
         <f t="shared" si="80"/>
         <v>188890.61328125</v>
       </c>
-      <c r="M34" s="111">
+      <c r="M34" s="111" t="n">
         <f t="shared" si="80"/>
         <v>189921.09375</v>
       </c>
@@ -23591,37 +23601,37 @@
       <c r="B36" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="113">
+      <c r="C36" s="113" t="n">
         <v>12905.8798828125</v>
       </c>
-      <c r="D36" s="118">
+      <c r="D36" s="118" t="n">
         <v>13200.650390625</v>
       </c>
-      <c r="E36" s="110">
+      <c r="E36" s="110" t="n">
         <v>14452.1796875</v>
       </c>
-      <c r="F36" s="110">
+      <c r="F36" s="110" t="n">
         <v>13769.7197265625</v>
       </c>
-      <c r="G36" s="110">
+      <c r="G36" s="110" t="n">
         <v>16068.4404296875</v>
       </c>
-      <c r="H36" s="110">
+      <c r="H36" s="110" t="n">
         <v>20033.109375</v>
       </c>
-      <c r="I36" s="110">
+      <c r="I36" s="110" t="n">
         <v>21795.94921875</v>
       </c>
-      <c r="J36" s="110">
+      <c r="J36" s="110" t="n">
         <v>24035.08984375</v>
       </c>
-      <c r="K36" s="110">
+      <c r="K36" s="110" t="n">
         <v>19873.75</v>
       </c>
-      <c r="L36" s="110">
+      <c r="L36" s="110" t="n">
         <v>20824.509765625</v>
       </c>
-      <c r="M36" s="110">
+      <c r="M36" s="110" t="n">
         <v>22082.380859375</v>
       </c>
       <c r="O36" s="107"/>
@@ -23652,45 +23662,45 @@
         <v>27</v>
       </c>
       <c r="C37" s="113"/>
-      <c r="D37" s="121">
+      <c r="D37" s="121" t="n">
         <f t="shared" ref="D37" si="81">(D36-C36)/C36</f>
-        <v>2.2840016371534867E-2</v>
-      </c>
-      <c r="E37" s="121">
+        <v>0.022840016371534867</v>
+      </c>
+      <c r="E37" s="121" t="n">
         <f t="shared" ref="E37" si="82">(E36-D36)/D36</f>
-        <v>9.48081541318469E-2</v>
-      </c>
-      <c r="F37" s="121">
+        <v>0.0948081541318469</v>
+      </c>
+      <c r="F37" s="121" t="n">
         <f t="shared" ref="F37" si="83">(F36-E36)/E36</f>
-        <v>-4.7221939921475949E-2</v>
-      </c>
-      <c r="G37" s="121">
+        <v>-0.04722193992147595</v>
+      </c>
+      <c r="G37" s="121" t="n">
         <f t="shared" ref="G37" si="84">(G36-F36)/F36</f>
-        <v>0.16694026812257109</v>
-      </c>
-      <c r="H37" s="121">
+        <v>0.1669402681225711</v>
+      </c>
+      <c r="H37" s="121" t="n">
         <f t="shared" ref="H37" si="85">(H36-G36)/G36</f>
         <v>0.24673638755803043</v>
       </c>
-      <c r="I37" s="121">
+      <c r="I37" s="121" t="n">
         <f t="shared" ref="I37" si="86">(I36-H36)/H36</f>
-        <v>8.7996317034534241E-2</v>
-      </c>
-      <c r="J37" s="121">
+        <v>0.08799631703453424</v>
+      </c>
+      <c r="J37" s="121" t="n">
         <f t="shared" ref="J37" si="87">(J36-I36)/I36</f>
         <v>0.10273196191307767</v>
       </c>
-      <c r="K37" s="121">
+      <c r="K37" s="121" t="n">
         <f t="shared" ref="K37" si="88">(K36-J36)/J36</f>
         <v>-0.17313602199128456</v>
       </c>
-      <c r="L37" s="121">
+      <c r="L37" s="121" t="n">
         <f t="shared" ref="L37" si="89">(L36-K36)/K36</f>
-        <v>4.7839978143279449E-2</v>
-      </c>
-      <c r="M37" s="121">
+        <v>0.04783997814327945</v>
+      </c>
+      <c r="M37" s="121" t="n">
         <f t="shared" ref="M37" si="90">(M36-L36)/L36</f>
-        <v>6.0403395225484095E-2</v>
+        <v>0.060403395225484095</v>
       </c>
       <c r="O37" s="107"/>
       <c r="P37" s="107"/>
@@ -23743,37 +23753,37 @@
       <c r="B39" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="113">
+      <c r="C39" s="113" t="n">
         <v>18079.640625</v>
       </c>
-      <c r="D39" s="110">
+      <c r="D39" s="110" t="n">
         <v>18010.830078125</v>
       </c>
-      <c r="E39" s="110">
+      <c r="E39" s="110" t="n">
         <v>19091.5703125</v>
       </c>
-      <c r="F39" s="110">
+      <c r="F39" s="110" t="n">
         <v>26721.4609375</v>
       </c>
-      <c r="G39" s="110">
+      <c r="G39" s="110" t="n">
         <v>26443.259765625</v>
       </c>
-      <c r="H39" s="110">
+      <c r="H39" s="110" t="n">
         <v>83086.359375</v>
       </c>
-      <c r="I39" s="110">
+      <c r="I39" s="110" t="n">
         <v>85861.0234375</v>
       </c>
-      <c r="J39" s="110">
+      <c r="J39" s="110" t="n">
         <v>74088.2890625</v>
       </c>
-      <c r="K39" s="110">
+      <c r="K39" s="110" t="n">
         <v>76085.9921875</v>
       </c>
-      <c r="L39" s="110">
+      <c r="L39" s="110" t="n">
         <v>75382.9765625</v>
       </c>
-      <c r="M39" s="110">
+      <c r="M39" s="110" t="n">
         <v>74192.96875</v>
       </c>
       <c r="O39" s="107"/>
@@ -23804,45 +23814,45 @@
         <v>27</v>
       </c>
       <c r="C40" s="113"/>
-      <c r="D40" s="121">
+      <c r="D40" s="121" t="n">
         <f t="shared" ref="D40" si="91">(D39-C39)/C39</f>
-        <v>-3.8059687303657343E-3</v>
-      </c>
-      <c r="E40" s="121">
+        <v>-0.0038059687303657343</v>
+      </c>
+      <c r="E40" s="121" t="n">
         <f t="shared" ref="E40" si="92">(E39-D39)/D39</f>
-        <v>6.0005020850627526E-2</v>
-      </c>
-      <c r="F40" s="121">
+        <v>0.060005020850627526</v>
+      </c>
+      <c r="F40" s="121" t="n">
         <f t="shared" ref="F40" si="93">(F39-E39)/E39</f>
         <v>0.39964709555632577</v>
       </c>
-      <c r="G40" s="121">
+      <c r="G40" s="121" t="n">
         <f t="shared" ref="G40" si="94">(G39-F39)/F39</f>
-        <v>-1.0411151266231175E-2</v>
-      </c>
-      <c r="H40" s="121">
+        <v>-0.010411151266231175</v>
+      </c>
+      <c r="H40" s="121" t="n">
         <f t="shared" ref="H40" si="95">(H39-G39)/G39</f>
         <v>2.1420619133730394</v>
       </c>
-      <c r="I40" s="121">
+      <c r="I40" s="121" t="n">
         <f t="shared" ref="I40" si="96">(I39-H39)/H39</f>
-        <v>3.3394940918964777E-2</v>
-      </c>
-      <c r="J40" s="121">
+        <v>0.03339494091896478</v>
+      </c>
+      <c r="J40" s="121" t="n">
         <f t="shared" ref="J40" si="97">(J39-I39)/I39</f>
-        <v>-0.13711383703188229</v>
-      </c>
-      <c r="K40" s="121">
+        <v>-0.1371138370318823</v>
+      </c>
+      <c r="K40" s="121" t="n">
         <f t="shared" ref="K40" si="98">(K39-J39)/J39</f>
-        <v>2.6963817767673936E-2</v>
-      </c>
-      <c r="L40" s="121">
+        <v>0.026963817767673936</v>
+      </c>
+      <c r="L40" s="121" t="n">
         <f t="shared" ref="L40" si="99">(L39-K39)/K39</f>
-        <v>-9.2397510341660095E-3</v>
-      </c>
-      <c r="M40" s="121">
+        <v>-0.00923975103416601</v>
+      </c>
+      <c r="M40" s="121" t="n">
         <f t="shared" ref="M40" si="100">(M39-L39)/L39</f>
-        <v>-1.5786161103805246E-2</v>
+        <v>-0.015786161103805246</v>
       </c>
       <c r="O40" s="107"/>
       <c r="P40" s="107"/>
@@ -23898,43 +23908,43 @@
       <c r="C42" s="116">
         <v>1</v>
       </c>
-      <c r="D42" s="111">
+      <c r="D42" s="111" t="n">
         <f>D36+D39</f>
         <v>31211.48046875</v>
       </c>
-      <c r="E42" s="111">
+      <c r="E42" s="111" t="n">
         <f t="shared" ref="E42:M42" si="101">E36+E39</f>
         <v>33543.75</v>
       </c>
-      <c r="F42" s="111">
+      <c r="F42" s="111" t="n">
         <f t="shared" si="101"/>
         <v>40491.1806640625</v>
       </c>
-      <c r="G42" s="111">
+      <c r="G42" s="111" t="n">
         <f t="shared" si="101"/>
         <v>42511.7001953125</v>
       </c>
-      <c r="H42" s="111">
+      <c r="H42" s="111" t="n">
         <f t="shared" si="101"/>
         <v>103119.46875</v>
       </c>
-      <c r="I42" s="111">
+      <c r="I42" s="111" t="n">
         <f t="shared" si="101"/>
         <v>107656.97265625</v>
       </c>
-      <c r="J42" s="111">
+      <c r="J42" s="111" t="n">
         <f t="shared" si="101"/>
         <v>98123.37890625</v>
       </c>
-      <c r="K42" s="111">
+      <c r="K42" s="111" t="n">
         <f t="shared" si="101"/>
         <v>95959.7421875</v>
       </c>
-      <c r="L42" s="111">
+      <c r="L42" s="111" t="n">
         <f t="shared" si="101"/>
         <v>96207.486328125</v>
       </c>
-      <c r="M42" s="111">
+      <c r="M42" s="111" t="n">
         <f t="shared" si="101"/>
         <v>96275.349609375</v>
       </c>
@@ -23994,43 +24004,43 @@
       <c r="C44" s="134">
         <v>1</v>
       </c>
-      <c r="D44" s="134">
+      <c r="D44" s="134" t="n">
         <f>D34-D42</f>
         <v>10851.87890625</v>
       </c>
-      <c r="E44" s="134">
+      <c r="E44" s="134" t="n">
         <f t="shared" ref="E44:M44" si="102">E34-E42</f>
         <v>9582.0400390625</v>
       </c>
-      <c r="F44" s="134">
+      <c r="F44" s="134" t="n">
         <f t="shared" si="102"/>
         <v>7693.689453125</v>
       </c>
-      <c r="G44" s="134">
+      <c r="G44" s="134" t="n">
         <f t="shared" si="102"/>
         <v>11392.6494140625</v>
       </c>
-      <c r="H44" s="134">
+      <c r="H44" s="134" t="n">
         <f t="shared" si="102"/>
         <v>78650.318359375</v>
       </c>
-      <c r="I44" s="134">
+      <c r="I44" s="134" t="n">
         <f t="shared" si="102"/>
         <v>87680.32421875</v>
       </c>
-      <c r="J44" s="134">
+      <c r="J44" s="134" t="n">
         <f t="shared" si="102"/>
         <v>81925.89453125</v>
       </c>
-      <c r="K44" s="134">
+      <c r="K44" s="134" t="n">
         <f t="shared" si="102"/>
         <v>80834.162109375</v>
       </c>
-      <c r="L44" s="134">
+      <c r="L44" s="134" t="n">
         <f t="shared" si="102"/>
         <v>92683.126953125</v>
       </c>
-      <c r="M44" s="134">
+      <c r="M44" s="134" t="n">
         <f t="shared" si="102"/>
         <v>93645.744140625</v>
       </c>
@@ -24094,39 +24104,39 @@
     </row>
     <row r="46" spans="2:36">
       <c r="B46" s="122" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46" s="133">
+        <v>158</v>
+      </c>
+      <c r="C46" s="133" t="n">
         <v>14397.4599609375</v>
       </c>
-      <c r="D46" s="133">
+      <c r="D46" s="133" t="n">
         <v>15203.58984375</v>
       </c>
-      <c r="E46" s="133">
+      <c r="E46" s="133" t="n">
         <v>16116.759765625</v>
       </c>
-      <c r="F46" s="133">
+      <c r="F46" s="133" t="n">
         <v>22637.630859375</v>
       </c>
-      <c r="G46" s="133">
+      <c r="G46" s="133" t="n">
         <v>22346.189453125</v>
       </c>
-      <c r="H46" s="133">
-        <v>56742</v>
-      </c>
-      <c r="I46" s="133">
+      <c r="H46" s="133" t="n">
+        <v>56742.0</v>
+      </c>
+      <c r="I46" s="133" t="n">
         <v>57775.48046875</v>
       </c>
-      <c r="J46" s="133">
+      <c r="J46" s="133" t="n">
         <v>48271.9296875</v>
       </c>
-      <c r="K46" s="136">
+      <c r="K46" s="136" t="n">
         <v>51266.26953125</v>
       </c>
-      <c r="L46" s="133">
+      <c r="L46" s="133" t="n">
         <v>49044.3203125</v>
       </c>
-      <c r="M46" s="133">
+      <c r="M46" s="133" t="n">
         <v>47900.19140625</v>
       </c>
       <c r="Q46" s="107"/>
@@ -24261,43 +24271,43 @@
         <v>57</v>
       </c>
       <c r="C50" s="113"/>
-      <c r="D50" s="126">
+      <c r="D50" s="126" t="n">
         <f t="shared" ref="D50:M50" si="103">D6/D3</f>
         <v>0.27516369667640167</v>
       </c>
-      <c r="E50" s="126">
+      <c r="E50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.24286012502897802</v>
       </c>
-      <c r="F50" s="126">
+      <c r="F50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.32738094193624867</v>
       </c>
-      <c r="G50" s="126">
+      <c r="G50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.31509733029344994</v>
       </c>
-      <c r="H50" s="126">
+      <c r="H50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>1.8496451790527448</v>
       </c>
-      <c r="I50" s="126">
+      <c r="I50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.24628453083811624</v>
       </c>
-      <c r="J50" s="126">
+      <c r="J50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.22042742804302104</v>
       </c>
-      <c r="K50" s="126">
+      <c r="K50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.24829301213442323</v>
       </c>
-      <c r="L50" s="126">
+      <c r="L50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.26479517722093837</v>
       </c>
-      <c r="M50" s="126">
+      <c r="M50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.23926956489863485</v>
       </c>
@@ -24329,43 +24339,43 @@
         <v>58</v>
       </c>
       <c r="C51" s="113"/>
-      <c r="D51" s="126">
+      <c r="D51" s="126" t="n">
         <f t="shared" ref="D51:M51" si="104">D9/D3</f>
         <v>0.37011807492348664</v>
       </c>
-      <c r="E51" s="126">
+      <c r="E51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.33032707651224136</v>
       </c>
-      <c r="F51" s="126">
+      <c r="F51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>0.38041822835876882</v>
-      </c>
-      <c r="G51" s="126">
+        <v>0.3804182283587688</v>
+      </c>
+      <c r="G51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>0.35672160946173959</v>
-      </c>
-      <c r="H51" s="126">
+        <v>0.3567216094617396</v>
+      </c>
+      <c r="H51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.3635916015788806</v>
       </c>
-      <c r="I51" s="126">
+      <c r="I51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>0.42262766453125988</v>
-      </c>
-      <c r="J51" s="126">
+        <v>0.4226276645312599</v>
+      </c>
+      <c r="J51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.406847706877977</v>
       </c>
-      <c r="K51" s="126">
+      <c r="K51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.44273755165577616</v>
       </c>
-      <c r="L51" s="126">
+      <c r="L51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>0.44035191462054768</v>
-      </c>
-      <c r="M51" s="126">
+        <v>0.4403519146205477</v>
+      </c>
+      <c r="M51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.42769833716575906</v>
       </c>
@@ -24397,43 +24407,43 @@
         <v>59</v>
       </c>
       <c r="C52" s="113"/>
-      <c r="D52" s="126">
+      <c r="D52" s="126" t="n">
         <f t="shared" ref="D52:M52" si="105">D20/D3</f>
-        <v>0.26441695895440898</v>
-      </c>
-      <c r="E52" s="126">
+        <v>0.264416958954409</v>
+      </c>
+      <c r="E52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.2325528981966149</v>
       </c>
-      <c r="F52" s="126">
+      <c r="F52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>0.33157828191252497</v>
-      </c>
-      <c r="G52" s="126">
+        <v>0.331578281912525</v>
+      </c>
+      <c r="G52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.27909973203187716</v>
       </c>
-      <c r="H52" s="126">
+      <c r="H52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.22920366724612926</v>
       </c>
-      <c r="I52" s="126">
+      <c r="I52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.39094400058118334</v>
       </c>
-      <c r="J52" s="126">
+      <c r="J52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.32329853423147076</v>
       </c>
-      <c r="K52" s="126">
+      <c r="K52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>0.36153802937986629</v>
-      </c>
-      <c r="L52" s="126">
+        <v>0.3615380293798663</v>
+      </c>
+      <c r="L52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.3590173441667277</v>
       </c>
-      <c r="M52" s="126">
+      <c r="M52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.35805450609214085</v>
       </c>
@@ -24547,45 +24557,45 @@
         <v>62</v>
       </c>
       <c r="C55" s="114"/>
-      <c r="D55" s="126">
+      <c r="D55" s="126" t="n">
         <f>D23/D20</f>
-        <v>0.71270529427281437</v>
-      </c>
-      <c r="E55" s="126">
+        <v>0.7127052942728144</v>
+      </c>
+      <c r="E55" s="126" t="n">
         <f t="shared" ref="E55:M55" si="106">E23/E20</f>
-        <v>0.91135402764307294</v>
-      </c>
-      <c r="F55" s="126">
+        <v>0.9113540276430729</v>
+      </c>
+      <c r="F55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.69152482775662527</v>
-      </c>
-      <c r="G55" s="126">
+        <v>0.6915248277566253</v>
+      </c>
+      <c r="G55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.74250372067271131</v>
-      </c>
-      <c r="H55" s="126">
+        <v>0.7425037206727113</v>
+      </c>
+      <c r="H55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.78092025980149138</v>
-      </c>
-      <c r="I55" s="126">
+        <v>0.7809202598014914</v>
+      </c>
+      <c r="I55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.46883154522039328</v>
-      </c>
-      <c r="J55" s="126">
+        <v>0.4688315452203933</v>
+      </c>
+      <c r="J55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.56840414150536422</v>
-      </c>
-      <c r="K55" s="126">
+        <v>0.5684041415053642</v>
+      </c>
+      <c r="K55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.52375143783766842</v>
-      </c>
-      <c r="L55" s="126">
+        <v>0.5237514378376684</v>
+      </c>
+      <c r="L55" s="126" t="n">
         <f t="shared" si="106"/>
         <v>0.5481159093245862</v>
       </c>
-      <c r="M55" s="126">
+      <c r="M55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.51233773466764188</v>
+        <v>0.5123377346676419</v>
       </c>
       <c r="O55" s="107"/>
       <c r="P55" s="107"/>
@@ -24697,43 +24707,43 @@
         <v>64</v>
       </c>
       <c r="C58" s="113"/>
-      <c r="D58" s="112">
+      <c r="D58" s="112" t="n">
         <f>D42/D44</f>
         <v>2.8761360809853995</v>
       </c>
-      <c r="E58" s="112">
+      <c r="E58" s="112" t="n">
         <f t="shared" ref="E58:M58" si="107">E42/E44</f>
         <v>3.5006898179567507</v>
       </c>
-      <c r="F58" s="112">
+      <c r="F58" s="112" t="n">
         <f t="shared" si="107"/>
-        <v>5.2629081158995721</v>
-      </c>
-      <c r="G58" s="112">
+        <v>5.262908115899572</v>
+      </c>
+      <c r="G58" s="112" t="n">
         <f t="shared" si="107"/>
-        <v>3.7315025373148272</v>
-      </c>
-      <c r="H58" s="112">
+        <v>3.731502537314827</v>
+      </c>
+      <c r="H58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.3111131766666055</v>
       </c>
-      <c r="I58" s="112">
+      <c r="I58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.2278350201769452</v>
       </c>
-      <c r="J58" s="112">
+      <c r="J58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.1977089718418832</v>
       </c>
-      <c r="K58" s="112">
+      <c r="K58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.187118659777272</v>
       </c>
-      <c r="L58" s="112">
+      <c r="L58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.0380259006235564</v>
       </c>
-      <c r="M58" s="112">
+      <c r="M58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.0280803521065645</v>
       </c>
@@ -24765,45 +24775,45 @@
         <v>65</v>
       </c>
       <c r="C59" s="113"/>
-      <c r="D59" s="112">
+      <c r="D59" s="112" t="n">
         <f>D28/D36</f>
-        <v>1.1282595421360779</v>
-      </c>
-      <c r="E59" s="112">
+        <v>1.128259542136078</v>
+      </c>
+      <c r="E59" s="112" t="n">
         <f t="shared" ref="E59:M59" si="108">E28/E36</f>
-        <v>1.0413958831901979</v>
-      </c>
-      <c r="F59" s="112">
+        <v>1.041395883190198</v>
+      </c>
+      <c r="F59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>1.0897186300925101</v>
       </c>
-      <c r="G59" s="112">
+      <c r="G59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>1.0424253967844941</v>
-      </c>
-      <c r="H59" s="112">
+        <v>1.042425396784494</v>
+      </c>
+      <c r="H59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>0.89848163470005515</v>
-      </c>
-      <c r="I59" s="112">
+        <v>0.8984816347000552</v>
+      </c>
+      <c r="I59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>0.77500137550645076</v>
-      </c>
-      <c r="J59" s="112">
+        <v>0.7750013755064508</v>
+      </c>
+      <c r="J59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>0.70520103826062908</v>
-      </c>
-      <c r="K59" s="112">
+        <v>0.7052010382606291</v>
+      </c>
+      <c r="K59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>0.87944200500031444</v>
-      </c>
-      <c r="L59" s="112">
+        <v>0.8794420050003144</v>
+      </c>
+      <c r="L59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>0.84568186019535085</v>
-      </c>
-      <c r="M59" s="112">
+        <v>0.8456818601953509</v>
+      </c>
+      <c r="M59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>0.86310397173085618</v>
+        <v>0.8631039717308562</v>
       </c>
       <c r="O59" s="107"/>
       <c r="P59" s="107"/>
@@ -24830,45 +24840,45 @@
     </row>
     <row r="60" spans="2:36">
       <c r="B60" s="122" t="s">
-        <v>157</v>
-      </c>
-      <c r="D60" s="112">
+        <v>160</v>
+      </c>
+      <c r="D60" s="112" t="n">
         <f>D46/D9</f>
         <v>1.7202542026598153</v>
       </c>
-      <c r="E60" s="112">
+      <c r="E60" s="112" t="n">
         <f t="shared" ref="E60:M60" si="109">E46/E9</f>
         <v>2.1189592762940594</v>
       </c>
-      <c r="F60" s="112">
+      <c r="F60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>2.9701098928413945</v>
       </c>
-      <c r="G60" s="112">
+      <c r="G60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>3.1334096607755959</v>
-      </c>
-      <c r="H60" s="112">
+        <v>3.133409660775596</v>
+      </c>
+      <c r="H60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>5.9673348342781507</v>
-      </c>
-      <c r="I60" s="112">
+        <v>5.967334834278151</v>
+      </c>
+      <c r="I60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>4.1816262897662773</v>
-      </c>
-      <c r="J60" s="112">
+        <v>4.181626289766277</v>
+      </c>
+      <c r="J60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>3.590806428987936</v>
       </c>
-      <c r="K60" s="112">
+      <c r="K60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>3.4986852770355279</v>
-      </c>
-      <c r="L60" s="112">
+        <v>3.498685277035528</v>
+      </c>
+      <c r="L60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>3.1534929497639559</v>
-      </c>
-      <c r="M60" s="112">
+        <v>3.153492949763956</v>
+      </c>
+      <c r="M60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>3.274096263903536</v>
       </c>
@@ -24953,9 +24963,9 @@
         <v>73</v>
       </c>
       <c r="C63" s="113"/>
-      <c r="D63" s="121">
+      <c r="D63" s="121" t="n">
         <f>(M20/I20)^0.2 - 1</f>
-        <v>-8.4822770548845794E-3</v>
+        <v>-0.00848227705488458</v>
       </c>
       <c r="O63" s="107"/>
       <c r="P63" s="107"/>
@@ -24985,9 +24995,9 @@
         <v>83</v>
       </c>
       <c r="C64" s="113"/>
-      <c r="D64" s="121">
+      <c r="D64" s="121" t="n">
         <f>(M20/D20)^0.1 - 1</f>
-        <v>6.8502360086984737E-2</v>
+        <v>0.06850236008698474</v>
       </c>
     </row>
     <row r="65" spans="2:13">
@@ -24995,9 +25005,9 @@
         <v>74</v>
       </c>
       <c r="C65" s="114"/>
-      <c r="D65" s="121">
+      <c r="D65" s="121" t="n">
         <f>(M6/I6)^0.2 - 1</f>
-        <v>3.2834039436966389E-3</v>
+        <v>0.003283403943696639</v>
       </c>
     </row>
     <row r="66" spans="2:13">
@@ -25005,9 +25015,9 @@
         <v>84</v>
       </c>
       <c r="C66" s="114"/>
-      <c r="D66" s="121">
+      <c r="D66" s="121" t="n">
         <f>(M6/D6)^0.1 - 1</f>
-        <v>2.2207668016311244E-2</v>
+        <v>0.022207668016311244</v>
       </c>
     </row>
     <row r="67" spans="2:13">
@@ -25015,9 +25025,9 @@
         <v>75</v>
       </c>
       <c r="C67" s="114"/>
-      <c r="D67" s="121">
+      <c r="D67" s="121" t="n">
         <f>(M3/I3)^0.2 - 1</f>
-        <v>9.0985061897617125E-3</v>
+        <v>0.009098506189761713</v>
       </c>
     </row>
     <row r="68" spans="2:13">
@@ -25025,9 +25035,9 @@
         <v>85</v>
       </c>
       <c r="C68" s="114"/>
-      <c r="D68" s="121">
+      <c r="D68" s="121" t="n">
         <f>(M3/D3)^0.1 - 1</f>
-        <v>3.6595936390676931E-2</v>
+        <v>0.03659593639067693</v>
       </c>
     </row>
     <row r="69" spans="2:13">
@@ -25035,9 +25045,9 @@
         <v>88</v>
       </c>
       <c r="C69" s="114"/>
-      <c r="D69" s="121">
+      <c r="D69" s="121" t="n">
         <f>(M9/I9)^0.2 - 1</f>
-        <v>1.150839432360562E-2</v>
+        <v>0.01150839432360562</v>
       </c>
     </row>
     <row r="70" spans="2:13">
@@ -25045,7 +25055,7 @@
         <v>89</v>
       </c>
       <c r="C70" s="114"/>
-      <c r="D70" s="121">
+      <c r="D70" s="121" t="n">
         <f>(M9/D9)^0.2 - 1</f>
         <v>0.10605941637184735</v>
       </c>
@@ -25054,25 +25064,25 @@
       <c r="B71" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D71" s="121">
+      <c r="D71" s="121" t="n">
         <f>(M23/I23)^0.2 - 1</f>
-        <v>9.2723723024747962E-3</v>
+        <v>0.009272372302474796</v>
       </c>
     </row>
     <row r="72" spans="2:13">
       <c r="B72" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D72" s="121">
+      <c r="D72" s="121" t="n">
         <f>AVERAGE(I24:M24)</f>
-        <v>6.7479076671869739E-2</v>
+        <v>0.06747907667186974</v>
       </c>
     </row>
     <row r="73" spans="2:13">
       <c r="B73" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D73" s="121">
+      <c r="D73" s="121" t="n">
         <f>AVERAGE(I55:M55)</f>
         <v>0.5242881537111308</v>
       </c>
@@ -25120,45 +25130,45 @@
       <c r="C76" s="110">
         <v>0</v>
       </c>
-      <c r="D76" s="110">
+      <c r="D76" s="110" t="n">
         <f t="shared" ref="D76:M76" si="110">100*D6/D34</f>
         <v>15.620696828259453</v>
       </c>
-      <c r="E76" s="110">
+      <c r="E76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>12.966718974736175</v>
       </c>
-      <c r="F76" s="110">
+      <c r="F76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>13.612560972493087</v>
       </c>
-      <c r="G76" s="110">
+      <c r="G76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>11.686320499632107</v>
       </c>
-      <c r="H76" s="110">
+      <c r="H76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>26.611975520933605</v>
       </c>
-      <c r="I76" s="110">
+      <c r="I76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>4.1218519396777387</v>
-      </c>
-      <c r="J76" s="110">
+        <v>4.121851939677739</v>
+      </c>
+      <c r="J76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>4.0452470866590469</v>
-      </c>
-      <c r="K76" s="110">
+        <v>4.045247086659047</v>
+      </c>
+      <c r="K76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>4.6481238377856524</v>
-      </c>
-      <c r="L76" s="110">
+        <v>4.648123837785652</v>
+      </c>
+      <c r="L76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>4.9510425769941211</v>
-      </c>
-      <c r="M76" s="110">
+        <v>4.951042576994121</v>
+      </c>
+      <c r="M76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>4.3094564868633762</v>
+        <v>4.309456486863376</v>
       </c>
     </row>
     <row r="77" spans="2:13">
@@ -25168,83 +25178,83 @@
       <c r="C77" s="110">
         <v>0</v>
       </c>
-      <c r="D77" s="110">
+      <c r="D77" s="110" t="n">
         <f t="shared" ref="D77:M77" si="111">100*D6/D44</f>
-        <v>60.547946586150658</v>
-      </c>
-      <c r="E77" s="110">
+        <v>60.54794658615066</v>
+      </c>
+      <c r="E77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>58.359180061901696</v>
-      </c>
-      <c r="F77" s="110">
+        <v>58.3591800619017</v>
+      </c>
+      <c r="F77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>85.254218592804733</v>
-      </c>
-      <c r="G77" s="110">
+        <v>85.25421859280473</v>
+      </c>
+      <c r="G77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>55.293855095883593</v>
-      </c>
-      <c r="H77" s="110">
+        <v>55.29385509588359</v>
+      </c>
+      <c r="H77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>61.503287283558805</v>
       </c>
-      <c r="I77" s="110">
+      <c r="I77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>9.182806099198336</v>
       </c>
-      <c r="J77" s="110">
+      <c r="J77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>8.8902758156678274</v>
-      </c>
-      <c r="K77" s="110">
+        <v>8.890275815667827</v>
+      </c>
+      <c r="K77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>10.165998378576546</v>
       </c>
-      <c r="L77" s="110">
+      <c r="L77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>10.090353007004017</v>
       </c>
-      <c r="M77" s="110">
+      <c r="M77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>8.7399240292657954</v>
+        <v>8.739924029265795</v>
       </c>
     </row>
     <row r="78" spans="2:13">
       <c r="B78" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C78" s="110">
-        <v>0</v>
-      </c>
-      <c r="D78" s="40">
-        <v>23.569999694824219</v>
-      </c>
-      <c r="E78" s="40">
+      <c r="C78" s="110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D78" s="40" t="n">
+        <v>23.56999969482422</v>
+      </c>
+      <c r="E78" s="40" t="n">
         <v>19.290000915527344</v>
       </c>
-      <c r="F78" s="40">
-        <v>23.629999160766602</v>
-      </c>
-      <c r="G78" s="40">
-        <v>20.629999160766602</v>
-      </c>
-      <c r="H78" s="40">
-        <v>55.639999389648438</v>
-      </c>
-      <c r="I78" s="40">
-        <v>6.4499998092651367</v>
-      </c>
-      <c r="J78" s="40">
-        <v>6.2699999809265137</v>
-      </c>
-      <c r="K78" s="40">
-        <v>7.1399998664855957</v>
-      </c>
-      <c r="L78" s="40">
-        <v>7.4099998474121094</v>
-      </c>
-      <c r="M78" s="40">
-        <v>6.9000000953674316</v>
+      <c r="F78" s="40" t="n">
+        <v>23.6299991607666</v>
+      </c>
+      <c r="G78" s="40" t="n">
+        <v>20.6299991607666</v>
+      </c>
+      <c r="H78" s="40" t="n">
+        <v>55.63999938964844</v>
+      </c>
+      <c r="I78" s="40" t="n">
+        <v>6.449999809265137</v>
+      </c>
+      <c r="J78" s="40" t="n">
+        <v>6.269999980926514</v>
+      </c>
+      <c r="K78" s="40" t="n">
+        <v>7.139999866485596</v>
+      </c>
+      <c r="L78" s="40" t="n">
+        <v>7.409999847412109</v>
+      </c>
+      <c r="M78" s="40" t="n">
+        <v>6.900000095367432</v>
       </c>
     </row>
     <row r="80" spans="2:13" ht="17.5" thickBot="1">
@@ -25287,37 +25297,37 @@
       <c r="B81" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="C81" s="110">
-        <v>0</v>
-      </c>
-      <c r="D81" s="40">
+      <c r="C81" s="110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D81" s="40" t="n">
         <v>15.819999694824219</v>
       </c>
-      <c r="E81" s="40">
+      <c r="E81" s="40" t="n">
         <v>18.079999923706055</v>
       </c>
-      <c r="F81" s="40">
+      <c r="F81" s="40" t="n">
         <v>17.290000915527344</v>
       </c>
-      <c r="G81" s="40">
+      <c r="G81" s="40" t="n">
         <v>19.799999237060547</v>
       </c>
-      <c r="H81" s="40">
+      <c r="H81" s="40" t="n">
         <v>21.940000534057617</v>
       </c>
-      <c r="I81" s="40">
+      <c r="I81" s="40" t="n">
         <v>1.3799999952316284</v>
       </c>
-      <c r="J81" s="40">
-        <v>12.060000419616699</v>
-      </c>
-      <c r="K81" s="40">
-        <v>9.9300003051757813</v>
-      </c>
-      <c r="L81" s="40">
+      <c r="J81" s="40" t="n">
+        <v>12.0600004196167</v>
+      </c>
+      <c r="K81" s="40" t="n">
+        <v>9.930000305175781</v>
+      </c>
+      <c r="L81" s="40" t="n">
         <v>10.270000457763672</v>
       </c>
-      <c r="M81" s="40">
+      <c r="M81" s="40" t="n">
         <v>14.130000114440918</v>
       </c>
     </row>
@@ -25325,46 +25335,46 @@
       <c r="B82" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="C82" s="110">
-        <v>0</v>
-      </c>
-      <c r="D82" s="40">
+      <c r="C82" s="110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D82" s="40" t="n">
         <v>13.770000457763672</v>
       </c>
-      <c r="E82" s="40">
+      <c r="E82" s="40" t="n">
         <v>15.229999542236328</v>
       </c>
-      <c r="F82" s="40">
+      <c r="F82" s="40" t="n">
         <v>17.799999237060547</v>
       </c>
-      <c r="G82" s="40">
-        <v>19.340000152587891</v>
-      </c>
-      <c r="H82" s="40">
+      <c r="G82" s="40" t="n">
+        <v>19.34000015258789</v>
+      </c>
+      <c r="H82" s="40" t="n">
         <v>17.670000076293945</v>
       </c>
-      <c r="I82" s="40">
-        <v>7.5799999237060547</v>
-      </c>
-      <c r="J82" s="40">
-        <v>8.5100002288818359</v>
-      </c>
-      <c r="K82" s="40">
+      <c r="I82" s="40" t="n">
+        <v>7.579999923706055</v>
+      </c>
+      <c r="J82" s="40" t="n">
+        <v>8.510000228881836</v>
+      </c>
+      <c r="K82" s="40" t="n">
         <v>6.190000057220459</v>
       </c>
-      <c r="L82" s="40">
+      <c r="L82" s="40" t="n">
         <v>7.440000057220459</v>
       </c>
-      <c r="M82" s="40">
-        <v>7.0900001525878906</v>
+      <c r="M82" s="40" t="n">
+        <v>7.090000152587891</v>
       </c>
     </row>
     <row r="83" spans="2:13">
       <c r="B83" s="122" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="110">
-        <v>3.4500000476837158</v>
+      <c r="C83" s="110" t="n">
+        <v>3.450000047683716</v>
       </c>
     </row>
   </sheetData>
